--- a/ProcessedData/conf_svm_video_2.xlsx
+++ b/ProcessedData/conf_svm_video_2.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,13 +405,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.8616527776282056</v>
+        <v>-1.087593669203776</v>
       </c>
       <c r="C2">
-        <v>0.2291315880731842</v>
+        <v>-0.2705623995524675</v>
       </c>
       <c r="D2">
-        <v>0.7472973691491078</v>
+        <v>0.6738506449430729</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -431,16 +425,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.520965351779107</v>
+        <v>-1.408699925018225</v>
       </c>
       <c r="C3">
-        <v>1.603941465453004</v>
+        <v>0.09156637586002722</v>
       </c>
       <c r="D3">
-        <v>-0.5574893964331674</v>
+        <v>0.8238121502316731</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -448,13 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.855800147348949</v>
+        <v>-1.352656124469282</v>
       </c>
       <c r="C4">
-        <v>0.5506490288996991</v>
+        <v>-0.3297925380366749</v>
       </c>
       <c r="D4">
-        <v>0.6700990118487704</v>
+        <v>1.185993091344001</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -465,13 +465,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.3185884038092049</v>
+        <v>-0.647745731332024</v>
       </c>
       <c r="C5">
-        <v>0.3873580441118415</v>
+        <v>-0.2284283120077866</v>
       </c>
       <c r="D5">
-        <v>0.5028042838241552</v>
+        <v>0.4100784023596881</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -482,16 +485,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.5698243651272374</v>
+        <v>-0.8226916644898139</v>
       </c>
       <c r="C6">
-        <v>1.827472480392988</v>
+        <v>0.1789064088206996</v>
       </c>
       <c r="D6">
-        <v>-1.001873802931376</v>
+        <v>0.2790309439597071</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -499,13 +505,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.6835979358413034</v>
+        <v>-0.7600304491781985</v>
       </c>
       <c r="C7">
-        <v>1.649279007577801</v>
+        <v>0.00663280133993327</v>
       </c>
       <c r="D7">
-        <v>-1.215338698822027</v>
+        <v>-0.1187061144661445</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -516,16 +525,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.8235082686851473</v>
+        <v>-1.202872138942707</v>
       </c>
       <c r="C8">
-        <v>1.674645025744483</v>
+        <v>0.1947212982681936</v>
       </c>
       <c r="D8">
-        <v>-0.8651163583232927</v>
+        <v>0.309313299810723</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -533,16 +545,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-1.079807354270446</v>
+        <v>-1.140747956343365</v>
       </c>
       <c r="C9">
-        <v>1.130021933135046</v>
+        <v>-0.1083840477813686</v>
       </c>
       <c r="D9">
-        <v>-0.1318024282007518</v>
+        <v>0.7229551271003247</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -550,16 +565,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.3968972733186532</v>
+        <v>-0.7195324812569803</v>
       </c>
       <c r="C10">
-        <v>0.3816962616922238</v>
+        <v>-0.3198240202689537</v>
       </c>
       <c r="D10">
-        <v>-0.2117117126889246</v>
+        <v>0.5227344551715352</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -567,13 +585,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.1008428740671375</v>
+        <v>-0.4876441102925902</v>
       </c>
       <c r="C11">
-        <v>-0.493975410294729</v>
+        <v>-0.6738116776613843</v>
       </c>
       <c r="D11">
-        <v>0.6948313703807451</v>
+        <v>0.5530559255007093</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -584,16 +605,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.02542043716991005</v>
+        <v>-0.6449208667475617</v>
       </c>
       <c r="C12">
-        <v>0.8065860194373932</v>
+        <v>-0.3008323767369053</v>
       </c>
       <c r="D12">
-        <v>0.450927166006457</v>
+        <v>0.592940414026072</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -601,16 +625,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.493821532548502</v>
+        <v>-0.9946136708410358</v>
       </c>
       <c r="C13">
-        <v>0.3946744526822757</v>
+        <v>-0.12142965577371</v>
       </c>
       <c r="D13">
-        <v>-0.2702508041349051</v>
+        <v>0.4816147468371087</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -618,16 +645,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.6816932346286019</v>
+        <v>-0.9642444962327233</v>
       </c>
       <c r="C14">
-        <v>1.039619276415956</v>
+        <v>-0.2007067020481219</v>
       </c>
       <c r="D14">
-        <v>-0.3954052671771252</v>
+        <v>0.5514908859835956</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -635,16 +665,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.6587107417593316</v>
+        <v>-1.001105606172316</v>
       </c>
       <c r="C15">
-        <v>0.5967424905128332</v>
+        <v>0.04991320172025296</v>
       </c>
       <c r="D15">
-        <v>0.004643531670731949</v>
+        <v>0.4134061164134919</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -652,13 +685,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.8319760983808294</v>
+        <v>-0.9730456382402344</v>
       </c>
       <c r="C16">
-        <v>0.09330842447335519</v>
+        <v>-0.2746198651855908</v>
       </c>
       <c r="D16">
-        <v>0.501642957896822</v>
+        <v>0.5819127102934557</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -669,16 +705,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.336315605542871</v>
+        <v>-0.6279154556857305</v>
       </c>
       <c r="C17">
-        <v>0.8362362096445571</v>
+        <v>-0.09987437395250454</v>
       </c>
       <c r="D17">
-        <v>-0.3051238184809707</v>
+        <v>0.1693584317184333</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -686,16 +725,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.2747534903625334</v>
+        <v>-0.3996419356956292</v>
       </c>
       <c r="C18">
-        <v>1.410313510946801</v>
+        <v>-0.2081989519207117</v>
       </c>
       <c r="D18">
-        <v>-1.309797483179105</v>
+        <v>-0.1721979582709969</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -703,13 +745,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.5863363848418386</v>
+        <v>-0.8456232035674185</v>
       </c>
       <c r="C19">
-        <v>1.182439684906073</v>
+        <v>-0.03682705646844715</v>
       </c>
       <c r="D19">
-        <v>-1.009130590867866</v>
+        <v>-0.1716676310019884</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -720,13 +765,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.5698315708807261</v>
+        <v>-0.5903794323025424</v>
       </c>
       <c r="C20">
-        <v>1.395800780872282</v>
+        <v>0.07374925490400344</v>
       </c>
       <c r="D20">
-        <v>-1.189145455780955</v>
+        <v>-0.01288007351534912</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -737,16 +785,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.7364741290127261</v>
+        <v>-0.9738278045940727</v>
       </c>
       <c r="C21">
-        <v>1.646327561335081</v>
+        <v>0.1460611647793183</v>
       </c>
       <c r="D21">
-        <v>-1.446479362751158</v>
+        <v>0.3344267829967211</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -754,13 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8658730388095117</v>
+        <v>0.5487820671637273</v>
       </c>
       <c r="C22">
-        <v>-1.117307932795384</v>
+        <v>-0.914426664082203</v>
       </c>
       <c r="D22">
-        <v>-0.1773502327084094</v>
+        <v>-0.363736763956539</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -771,16 +825,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-1.489166941897721</v>
+        <v>-2.115711324901929</v>
       </c>
       <c r="C23">
-        <v>2.413614613852168</v>
+        <v>1.11228101391151</v>
       </c>
       <c r="D23">
-        <v>0.7575214793835584</v>
+        <v>1.25513764957312</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -788,13 +845,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.6954722197558081</v>
+        <v>-1.091268605622435</v>
       </c>
       <c r="C24">
-        <v>1.253035371630105</v>
+        <v>0.4528323703921168</v>
       </c>
       <c r="D24">
-        <v>-0.7024674666608209</v>
+        <v>0.1518535048663046</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -805,16 +865,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-1.125187840968463</v>
+        <v>-1.132020707965622</v>
       </c>
       <c r="C25">
-        <v>1.195108901715646</v>
+        <v>0.3079522290289378</v>
       </c>
       <c r="D25">
-        <v>-0.5958807555663522</v>
+        <v>0.3506727573363639</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -822,13 +885,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.9685302790276979</v>
+        <v>-1.268205742608953</v>
       </c>
       <c r="C26">
-        <v>0.8607120204659452</v>
+        <v>0.3463021561279114</v>
       </c>
       <c r="D26">
-        <v>-0.2099066971684443</v>
+        <v>0.1999422188142403</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -839,13 +905,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.5075693236914285</v>
+        <v>-0.8574575513616212</v>
       </c>
       <c r="C27">
-        <v>1.097692937295905</v>
+        <v>0.4155748065329798</v>
       </c>
       <c r="D27">
-        <v>-0.5386725952341324</v>
+        <v>-0.2401491370037901</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -856,13 +925,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.9943976924000035</v>
+        <v>-1.124939862829267</v>
       </c>
       <c r="C28">
-        <v>1.448609006062771</v>
+        <v>0.6816198401298108</v>
       </c>
       <c r="D28">
-        <v>-1.011284157622174</v>
+        <v>-0.08316330752805132</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -873,16 +945,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.028378100740887</v>
+        <v>-1.163244681963637</v>
       </c>
       <c r="C29">
-        <v>0.9718949201377821</v>
+        <v>0.2672666493860107</v>
       </c>
       <c r="D29">
-        <v>0.2573891567464011</v>
+        <v>0.439672067548063</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -890,13 +965,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-1.05666283587954</v>
+        <v>-0.987593628493039</v>
       </c>
       <c r="C30">
-        <v>1.632640397992305</v>
+        <v>0.392888780645279</v>
       </c>
       <c r="D30">
-        <v>-1.117934529207738</v>
+        <v>0.1348599620462159</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -907,13 +985,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.9635295396009825</v>
+        <v>-1.023122562203417</v>
       </c>
       <c r="C31">
-        <v>0.783306351506767</v>
+        <v>0.3002218021957864</v>
       </c>
       <c r="D31">
-        <v>-0.4699348412467818</v>
+        <v>0.09683939709827241</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -924,13 +1005,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.6459299559123588</v>
+        <v>-0.9677712699991867</v>
       </c>
       <c r="C32">
-        <v>1.783738227409907</v>
+        <v>0.3994700068347876</v>
       </c>
       <c r="D32">
-        <v>-1.769484099217967</v>
+        <v>0.07111088554649078</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -941,13 +1025,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-1.106375950975331</v>
+        <v>-1.158819104059488</v>
       </c>
       <c r="C33">
-        <v>1.235578018996703</v>
+        <v>0.3967864203697059</v>
       </c>
       <c r="D33">
-        <v>-0.2800076576600637</v>
+        <v>0.3560093527565726</v>
+      </c>
+      <c r="E33">
+        <v>11</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -958,13 +1045,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.9205476376245728</v>
+        <v>-1.130626860001686</v>
       </c>
       <c r="C34">
-        <v>1.112249167054904</v>
+        <v>0.4417196370119837</v>
       </c>
       <c r="D34">
-        <v>-0.7704469925680147</v>
+        <v>0.06938479587424756</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -975,13 +1065,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-1.33196003682246</v>
+        <v>-1.181828772002756</v>
       </c>
       <c r="C35">
-        <v>1.548227539714065</v>
+        <v>0.4321414927989639</v>
       </c>
       <c r="D35">
-        <v>-0.8862947273451215</v>
+        <v>0.3790790212501056</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -992,13 +1085,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-1.428632649456363</v>
+        <v>-1.259427251656945</v>
       </c>
       <c r="C36">
-        <v>1.57904470125142</v>
+        <v>0.4831060709236952</v>
       </c>
       <c r="D36">
-        <v>-0.7217514254353515</v>
+        <v>0.2617509469137074</v>
+      </c>
+      <c r="E36">
+        <v>11</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1009,13 +1105,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-1.479561813539463</v>
+        <v>-1.22593625305056</v>
       </c>
       <c r="C37">
-        <v>1.331428141010576</v>
+        <v>0.4811351635900314</v>
       </c>
       <c r="D37">
-        <v>-0.6557681806877936</v>
+        <v>0.2009852379581994</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1026,16 +1125,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-3.28503374023753</v>
+        <v>-2.3303145314822</v>
       </c>
       <c r="C38">
-        <v>3.005857615424817</v>
+        <v>0.658154751844866</v>
       </c>
       <c r="D38">
-        <v>1.480799706018874</v>
+        <v>0.9254432407786416</v>
+      </c>
+      <c r="E38">
+        <v>11</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1043,16 +1145,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-2.628084280045309</v>
+        <v>-1.951341503623513</v>
       </c>
       <c r="C39">
-        <v>2.440111137744153</v>
+        <v>0.4847274603358547</v>
       </c>
       <c r="D39">
-        <v>0.9231885301994543</v>
+        <v>0.8914678245537532</v>
+      </c>
+      <c r="E39">
+        <v>11</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1060,13 +1165,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-1.075377486890545</v>
+        <v>-1.061831594596515</v>
       </c>
       <c r="C40">
-        <v>0.9924670858875543</v>
+        <v>0.3146461852956847</v>
       </c>
       <c r="D40">
-        <v>-0.6169499857757176</v>
+        <v>0.1908717384215346</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1077,13 +1185,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-1.490216166699662</v>
+        <v>-1.355317867928215</v>
       </c>
       <c r="C41">
-        <v>1.295156887311293</v>
+        <v>0.4841558544846428</v>
       </c>
       <c r="D41">
-        <v>-0.6291689851804761</v>
+        <v>0.2985623868884556</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1094,13 +1205,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-1.501192550361843</v>
+        <v>-1.603183493308635</v>
       </c>
       <c r="C42">
-        <v>3.459446796033064</v>
+        <v>1.050821736732695</v>
       </c>
       <c r="D42">
-        <v>-0.3310633545429699</v>
+        <v>0.9696919076571792</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1111,13 +1225,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.9583158386348303</v>
+        <v>-0.9152548495474631</v>
       </c>
       <c r="C43">
-        <v>1.806778665025751</v>
+        <v>0.473370258720177</v>
       </c>
       <c r="D43">
-        <v>-1.671316030989151</v>
+        <v>0.0009273503490052071</v>
+      </c>
+      <c r="E43">
+        <v>11</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1128,13 +1245,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-1.037937235574287</v>
+        <v>-0.9822658297940003</v>
       </c>
       <c r="C44">
-        <v>1.440316621449904</v>
+        <v>0.3087764933362853</v>
       </c>
       <c r="D44">
-        <v>-0.9369147729129633</v>
+        <v>0.1353231139409381</v>
+      </c>
+      <c r="E44">
+        <v>11</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1145,13 +1265,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.9973605650939368</v>
+        <v>-1.115316241923728</v>
       </c>
       <c r="C45">
-        <v>1.158483826463996</v>
+        <v>0.3925174841326716</v>
       </c>
       <c r="D45">
-        <v>-0.2807049970309542</v>
+        <v>0.149903502268157</v>
+      </c>
+      <c r="E45">
+        <v>11</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1162,13 +1285,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-1.259544183612976</v>
+        <v>-1.215832217708985</v>
       </c>
       <c r="C46">
-        <v>1.326007594354029</v>
+        <v>0.4392540385081273</v>
       </c>
       <c r="D46">
-        <v>-0.7826926957924044</v>
+        <v>0.2497487998381785</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1179,16 +1305,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-1.525037242805996</v>
+        <v>-2.235255078568533</v>
       </c>
       <c r="C47">
-        <v>1.787157914138438</v>
+        <v>0.4903568129597977</v>
       </c>
       <c r="D47">
-        <v>1.50938318213738</v>
+        <v>1.307383329174519</v>
+      </c>
+      <c r="E47">
+        <v>11</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1196,16 +1325,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.8981320035109404</v>
+        <v>-1.206925699062547</v>
       </c>
       <c r="C48">
-        <v>0.7623566456373735</v>
+        <v>0.3195110696594944</v>
       </c>
       <c r="D48">
-        <v>0.07051013212327362</v>
+        <v>0.4184899830355364</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1213,13 +1345,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-1.144854021418969</v>
+        <v>-1.056264691380058</v>
       </c>
       <c r="C49">
-        <v>0.00881579633213414</v>
+        <v>-0.08843777924344214</v>
       </c>
       <c r="D49">
-        <v>0.3462565634472378</v>
+        <v>0.3745545766093783</v>
+      </c>
+      <c r="E49">
+        <v>11</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -1230,13 +1365,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.3293378657285618</v>
+        <v>-0.08583105027302046</v>
       </c>
       <c r="C50">
-        <v>1.066626651874269</v>
+        <v>0.6311965475962236</v>
       </c>
       <c r="D50">
-        <v>-2.721020670192812</v>
+        <v>-1.638972562961879</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1247,13 +1385,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.36316086931744</v>
+        <v>0.898863033842022</v>
       </c>
       <c r="C51">
-        <v>1.001532209448637</v>
+        <v>0.1716110087259216</v>
       </c>
       <c r="D51">
-        <v>-4.040476192572081</v>
+        <v>-2.107271774671473</v>
+      </c>
+      <c r="E51">
+        <v>12</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1264,13 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.305516547088113</v>
+        <v>0.8155126649721078</v>
       </c>
       <c r="C52">
-        <v>1.261096264270281</v>
+        <v>0.2954410940509417</v>
       </c>
       <c r="D52">
-        <v>-4.094108472375483</v>
+        <v>-2.015064889771716</v>
+      </c>
+      <c r="E52">
+        <v>12</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1281,16 +1425,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.08071429132231045</v>
+        <v>0.7244305293495257</v>
       </c>
       <c r="C53">
-        <v>1.451457383224191</v>
+        <v>0.1750629561994323</v>
       </c>
       <c r="D53">
-        <v>-3.355512470334892</v>
+        <v>-1.924213314186139</v>
+      </c>
+      <c r="E53">
+        <v>12</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1298,16 +1445,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1387054493337641</v>
+        <v>0.4410782597533927</v>
       </c>
       <c r="C54">
-        <v>1.125703872366949</v>
+        <v>0.3480771121909677</v>
       </c>
       <c r="D54">
-        <v>-2.591436006519112</v>
+        <v>-1.960683415007572</v>
+      </c>
+      <c r="E54">
+        <v>12</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1315,16 +1465,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.6541184400271891</v>
+        <v>0.5037492338583829</v>
       </c>
       <c r="C55">
-        <v>1.035900891289569</v>
+        <v>0.4239296727198866</v>
       </c>
       <c r="D55">
-        <v>-3.09926505485119</v>
+        <v>-1.875764277992616</v>
+      </c>
+      <c r="E55">
+        <v>12</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1332,16 +1485,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.445009001891171</v>
+        <v>0.6184990880492394</v>
       </c>
       <c r="C56">
-        <v>1.211147620202605</v>
+        <v>0.3924967916168574</v>
       </c>
       <c r="D56">
-        <v>-3.151132195241448</v>
+        <v>-1.813278815799211</v>
+      </c>
+      <c r="E56">
+        <v>12</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1349,13 +1505,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.471457391258802</v>
+        <v>0.8847867731867907</v>
       </c>
       <c r="C57">
-        <v>0.5758032541767938</v>
+        <v>0.02447090018549891</v>
       </c>
       <c r="D57">
-        <v>-3.829835709119697</v>
+        <v>-2.077810304016357</v>
+      </c>
+      <c r="E57">
+        <v>12</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1366,13 +1525,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.317179880140881</v>
+        <v>0.8775715605880818</v>
       </c>
       <c r="C58">
-        <v>0.6913664992143879</v>
+        <v>0.1838839349841509</v>
       </c>
       <c r="D58">
-        <v>-3.722626849054811</v>
+        <v>-2.330343907996888</v>
+      </c>
+      <c r="E58">
+        <v>12</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1383,16 +1545,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.8239184645474831</v>
+        <v>0.9087167403729424</v>
       </c>
       <c r="C59">
-        <v>1.950155834548547</v>
+        <v>0.6495315739336978</v>
       </c>
       <c r="D59">
-        <v>-4.913847690099407</v>
+        <v>-2.103490730118514</v>
+      </c>
+      <c r="E59">
+        <v>12</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1400,13 +1565,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.2946608554652925</v>
+        <v>0.3662633707561281</v>
       </c>
       <c r="C60">
-        <v>0.8508972039926527</v>
+        <v>0.4420744086437747</v>
       </c>
       <c r="D60">
-        <v>-2.866711396663501</v>
+        <v>-1.917738096927456</v>
+      </c>
+      <c r="E60">
+        <v>12</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -1417,13 +1585,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.634792296449725</v>
+        <v>1.135097329750826</v>
       </c>
       <c r="C61">
-        <v>0.9523737823193025</v>
+        <v>0.3548382800254204</v>
       </c>
       <c r="D61">
-        <v>-4.334997591831037</v>
+        <v>-2.653264086277262</v>
+      </c>
+      <c r="E61">
+        <v>12</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1434,16 +1605,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.9613811878907244</v>
+        <v>0.7506278957860388</v>
       </c>
       <c r="C62">
-        <v>1.170170713244714</v>
+        <v>0.3591286533476394</v>
       </c>
       <c r="D62">
-        <v>-3.727697802394983</v>
+        <v>-2.150091247979436</v>
+      </c>
+      <c r="E62">
+        <v>12</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1451,13 +1625,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.7271643603635114</v>
+        <v>0.5634189803131129</v>
       </c>
       <c r="C63">
-        <v>0.6960968868154497</v>
+        <v>0.3103838330833576</v>
       </c>
       <c r="D63">
-        <v>-2.968066146898234</v>
+        <v>-1.962325507493011</v>
+      </c>
+      <c r="E63">
+        <v>12</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1468,13 +1645,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.259347685400626</v>
+        <v>1.086346971003336</v>
       </c>
       <c r="C64">
-        <v>1.251106840190189</v>
+        <v>0.4953891370867226</v>
       </c>
       <c r="D64">
-        <v>-4.339214081135703</v>
+        <v>-1.952924703552211</v>
+      </c>
+      <c r="E64">
+        <v>12</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1485,13 +1665,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6052495544111827</v>
+        <v>0.763050048158521</v>
       </c>
       <c r="C65">
-        <v>0.5426794262199647</v>
+        <v>0.2096691259944743</v>
       </c>
       <c r="D65">
-        <v>-2.640847422319703</v>
+        <v>-2.186194516894864</v>
+      </c>
+      <c r="E65">
+        <v>12</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1502,13 +1685,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.4830528150825769</v>
+        <v>0.3224827477088981</v>
       </c>
       <c r="C66">
-        <v>1.725383539457249</v>
+        <v>0.8313401331321408</v>
       </c>
       <c r="D66">
-        <v>-3.201428361283547</v>
+        <v>-2.433250458338396</v>
+      </c>
+      <c r="E66">
+        <v>12</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -1519,13 +1705,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.1927699871145965</v>
+        <v>0.5525888619246082</v>
       </c>
       <c r="C67">
-        <v>1.948076646274957</v>
+        <v>0.7528422434797113</v>
       </c>
       <c r="D67">
-        <v>-3.939588988238082</v>
+        <v>-2.127963644452093</v>
+      </c>
+      <c r="E67">
+        <v>12</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -1536,13 +1725,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2.238334922821671</v>
+        <v>1.005515280460077</v>
       </c>
       <c r="C68">
-        <v>1.852435111570967</v>
+        <v>0.4795395355545618</v>
       </c>
       <c r="D68">
-        <v>-3.793747419101261</v>
+        <v>-1.143224802213145</v>
+      </c>
+      <c r="E68">
+        <v>12</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -1553,13 +1745,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.259129497555888</v>
+        <v>1.265635183260563</v>
       </c>
       <c r="C69">
-        <v>1.042466283249072</v>
+        <v>-0.02248426869657337</v>
       </c>
       <c r="D69">
-        <v>-3.979091086132293</v>
+        <v>-1.444314010844236</v>
+      </c>
+      <c r="E69">
+        <v>12</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -1570,16 +1765,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.3212366336771437</v>
+        <v>0.4583035179228632</v>
       </c>
       <c r="C70">
-        <v>0.6757227922280192</v>
+        <v>0.2245511266009468</v>
       </c>
       <c r="D70">
-        <v>-1.87379794380644</v>
+        <v>-1.532035401337701</v>
+      </c>
+      <c r="E70">
+        <v>12</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1587,13 +1785,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.225516595585739</v>
+        <v>0.7908759128694556</v>
       </c>
       <c r="C71">
-        <v>1.367434991079799</v>
+        <v>0.3107924484955326</v>
       </c>
       <c r="D71">
-        <v>-2.879306103470712</v>
+        <v>-1.099441073035507</v>
+      </c>
+      <c r="E71">
+        <v>12</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1604,16 +1805,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7251132554641271</v>
+        <v>1.157849801055543</v>
       </c>
       <c r="C72">
-        <v>2.725412927902735</v>
+        <v>0.8485720720412078</v>
       </c>
       <c r="D72">
-        <v>-4.637673138019599</v>
+        <v>-2.225079613491912</v>
+      </c>
+      <c r="E72">
+        <v>12</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1621,16 +1825,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.25142365409013</v>
+        <v>1.386793936344106</v>
       </c>
       <c r="C73">
-        <v>2.472984908563082</v>
+        <v>0.7670878932722156</v>
       </c>
       <c r="D73">
-        <v>-5.853588604703742</v>
+        <v>-2.487187272126675</v>
+      </c>
+      <c r="E73">
+        <v>12</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1638,13 +1845,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.92797938678898</v>
+        <v>1.136485058262576</v>
       </c>
       <c r="C74">
-        <v>-1.07483594651564</v>
+        <v>-0.8365170749097792</v>
       </c>
       <c r="D74">
-        <v>-1.636920359618346</v>
+        <v>-1.00965370223794</v>
+      </c>
+      <c r="E74">
+        <v>12</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -1655,13 +1865,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.1416875356900242</v>
+        <v>0.3368126984286853</v>
       </c>
       <c r="C75">
-        <v>0.8577355891437989</v>
+        <v>0.3496494128872493</v>
       </c>
       <c r="D75">
-        <v>-2.376722662076899</v>
+        <v>-1.673342208825956</v>
+      </c>
+      <c r="E75">
+        <v>12</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -1672,13 +1885,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.1034882901706525</v>
+        <v>0.4194981087705053</v>
       </c>
       <c r="C76">
-        <v>1.019427171936063</v>
+        <v>0.5721138017194922</v>
       </c>
       <c r="D76">
-        <v>-2.375888239300256</v>
+        <v>-1.715996907405099</v>
+      </c>
+      <c r="E76">
+        <v>12</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -1689,16 +1905,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.379508083551187</v>
+        <v>1.552303138125717</v>
       </c>
       <c r="C77">
-        <v>3.264549696024751</v>
+        <v>1.223482276552583</v>
       </c>
       <c r="D77">
-        <v>-6.778000687384108</v>
+        <v>-2.335934508974074</v>
+      </c>
+      <c r="E77">
+        <v>12</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1706,13 +1925,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.05034731411644844</v>
+        <v>0.173974628515324</v>
       </c>
       <c r="C78">
-        <v>1.576109328370374</v>
+        <v>0.636782739064516</v>
       </c>
       <c r="D78">
-        <v>-3.036720448365293</v>
+        <v>-1.949898684323143</v>
+      </c>
+      <c r="E78">
+        <v>12</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -1723,13 +1945,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.9155868873983721</v>
+        <v>0.9340576917205416</v>
       </c>
       <c r="C79">
-        <v>0.3926870518445845</v>
+        <v>-0.105820073998335</v>
       </c>
       <c r="D79">
-        <v>-2.869805164285577</v>
+        <v>-1.70863036604388</v>
+      </c>
+      <c r="E79">
+        <v>12</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -1740,13 +1965,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.265927714626936</v>
+        <v>1.050055181921733</v>
       </c>
       <c r="C80">
-        <v>1.161604084757277</v>
+        <v>0.2283596751592953</v>
       </c>
       <c r="D80">
-        <v>-3.934821184483547</v>
+        <v>-1.659161098918547</v>
+      </c>
+      <c r="E80">
+        <v>12</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -1757,16 +1985,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.630331363577167</v>
+        <v>0.7883156270061129</v>
       </c>
       <c r="C81">
-        <v>1.946977365369</v>
+        <v>0.2322074086712128</v>
       </c>
       <c r="D81">
-        <v>-3.432476110171705</v>
+        <v>-1.654182433154062</v>
+      </c>
+      <c r="E81">
+        <v>12</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1774,16 +2005,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.7618644725799379</v>
+        <v>0.5710646515792657</v>
       </c>
       <c r="C82">
-        <v>1.415294809439721</v>
+        <v>0.03668391787163619</v>
       </c>
       <c r="D82">
-        <v>-3.233020215716552</v>
+        <v>-1.28909073848904</v>
+      </c>
+      <c r="E82">
+        <v>12</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1791,16 +2025,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.1482172924234155</v>
+        <v>0.2731199505241455</v>
       </c>
       <c r="C83">
-        <v>0.5874684903561133</v>
+        <v>-0.06595873938772381</v>
       </c>
       <c r="D83">
-        <v>-1.306240995382192</v>
+        <v>-1.221254191789471</v>
+      </c>
+      <c r="E83">
+        <v>12</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -1808,16 +2045,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.02171621230241771</v>
+        <v>0.2851785869927896</v>
       </c>
       <c r="C84">
-        <v>0.05273954502466827</v>
+        <v>-0.2474030492805433</v>
       </c>
       <c r="D84">
-        <v>-0.936652201691443</v>
+        <v>-0.8921699146483353</v>
+      </c>
+      <c r="E84">
+        <v>12</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -1825,16 +2065,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.9820678866598056</v>
+        <v>1.302068399048414</v>
       </c>
       <c r="C85">
-        <v>2.820023932467468</v>
+        <v>0.966877043381007</v>
       </c>
       <c r="D85">
-        <v>-6.149496141501134</v>
+        <v>-2.487801954545351</v>
+      </c>
+      <c r="E85">
+        <v>12</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -1842,16 +2085,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.389165286858059</v>
+        <v>1.131061007977619</v>
       </c>
       <c r="C86">
-        <v>1.527955289832565</v>
+        <v>0.2004376408298465</v>
       </c>
       <c r="D86">
-        <v>-3.922160408528282</v>
+        <v>-1.64191660000849</v>
+      </c>
+      <c r="E86">
+        <v>12</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -1859,16 +2105,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.5858251514421804</v>
+        <v>1.207386957884161</v>
       </c>
       <c r="C87">
-        <v>3.011506706707725</v>
+        <v>0.3006405805910104</v>
       </c>
       <c r="D87">
-        <v>-5.572544353771681</v>
+        <v>-1.103406340481303</v>
+      </c>
+      <c r="E87">
+        <v>12</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -1876,13 +2125,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.07950495800587776</v>
+        <v>0.333039555773804</v>
       </c>
       <c r="C88">
-        <v>1.405602946644841</v>
+        <v>0.6055653705579416</v>
       </c>
       <c r="D88">
-        <v>-2.888391532645823</v>
+        <v>-1.971800089683711</v>
+      </c>
+      <c r="E88">
+        <v>12</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -1893,13 +2145,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.6594238924435032</v>
+        <v>0.3630398032327987</v>
       </c>
       <c r="C89">
-        <v>2.122159224389915</v>
+        <v>0.7996458174106289</v>
       </c>
       <c r="D89">
-        <v>-4.231522175501945</v>
+        <v>-1.534714373800979</v>
+      </c>
+      <c r="E89">
+        <v>12</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -1910,13 +2165,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.0713147507569003</v>
+        <v>0.4485529274125681</v>
       </c>
       <c r="C90">
-        <v>1.640095145233281</v>
+        <v>0.575791734990057</v>
       </c>
       <c r="D90">
-        <v>-3.16212399268005</v>
+        <v>-1.878986303889493</v>
+      </c>
+      <c r="E90">
+        <v>12</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -1927,16 +2185,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.8518008853262249</v>
+        <v>0.857495382331029</v>
       </c>
       <c r="C91">
-        <v>1.413383370651153</v>
+        <v>0.3227063839732484</v>
       </c>
       <c r="D91">
-        <v>-3.479485515751811</v>
+        <v>-2.096244282632184</v>
+      </c>
+      <c r="E91">
+        <v>12</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -1944,13 +2205,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.3743975591362925</v>
+        <v>-0.1373259672230245</v>
       </c>
       <c r="C92">
-        <v>-0.4190867005986189</v>
+        <v>-0.5776125249636364</v>
       </c>
       <c r="D92">
-        <v>0.1438641971061801</v>
+        <v>-0.02165918699935358</v>
+      </c>
+      <c r="E92">
+        <v>13</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -1961,13 +2225,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.9120156415769642</v>
+        <v>-0.5444176476069198</v>
       </c>
       <c r="C93">
-        <v>1.030619558057298</v>
+        <v>0.03117266771687047</v>
       </c>
       <c r="D93">
-        <v>-1.209053059336522</v>
+        <v>-0.10206669627962</v>
+      </c>
+      <c r="E93">
+        <v>13</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -1978,16 +2245,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.6428733399110849</v>
+        <v>-0.2301548749681476</v>
       </c>
       <c r="C94">
-        <v>0.7177565461586451</v>
+        <v>-0.3461058438329707</v>
       </c>
       <c r="D94">
-        <v>-0.8599614576549609</v>
+        <v>-0.05355898756105236</v>
+      </c>
+      <c r="E94">
+        <v>13</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -1995,13 +2265,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.6610478253842229</v>
+        <v>-0.2772311325577277</v>
       </c>
       <c r="C95">
-        <v>1.285127007880051</v>
+        <v>0.0218243737340211</v>
       </c>
       <c r="D95">
-        <v>-1.798869741980777</v>
+        <v>-0.2550825963491631</v>
+      </c>
+      <c r="E95">
+        <v>13</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -2012,16 +2285,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.8888591507972987</v>
+        <v>-0.7227317113486564</v>
       </c>
       <c r="C96">
-        <v>0.7009900416802609</v>
+        <v>-0.2855919794982017</v>
       </c>
       <c r="D96">
-        <v>0.02653141238359358</v>
+        <v>0.3576674338969211</v>
+      </c>
+      <c r="E96">
+        <v>13</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2029,16 +2305,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.1822067489290552</v>
+        <v>-0.08654333048012797</v>
       </c>
       <c r="C97">
-        <v>0.6741325752889896</v>
+        <v>-0.5256316453986667</v>
       </c>
       <c r="D97">
-        <v>-0.984075895274103</v>
+        <v>0.07576832070766909</v>
+      </c>
+      <c r="E97">
+        <v>13</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2046,13 +2325,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-1.07990966782335</v>
+        <v>-0.3477570794917194</v>
       </c>
       <c r="C98">
-        <v>1.350388521393521</v>
+        <v>0.1129585157242082</v>
       </c>
       <c r="D98">
-        <v>-1.665843277494279</v>
+        <v>-0.2163852165991312</v>
+      </c>
+      <c r="E98">
+        <v>13</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -2063,13 +2345,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.4292786486279644</v>
+        <v>-0.5257292389071743</v>
       </c>
       <c r="C99">
-        <v>1.279186686030434</v>
+        <v>0.2964314731646351</v>
       </c>
       <c r="D99">
-        <v>-2.251141870068467</v>
+        <v>-0.452147112027403</v>
+      </c>
+      <c r="E99">
+        <v>13</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -2080,16 +2365,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-1.095395186987718</v>
+        <v>-0.4982601675053656</v>
       </c>
       <c r="C100">
-        <v>0.9161326624747065</v>
+        <v>-0.1129571848179664</v>
       </c>
       <c r="D100">
-        <v>-1.185029912333444</v>
+        <v>0.1711458058507198</v>
+      </c>
+      <c r="E100">
+        <v>13</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2097,13 +2385,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-1.656224536329264</v>
+        <v>-0.553193514340397</v>
       </c>
       <c r="C101">
-        <v>2.58977851641862</v>
+        <v>0.5802405060480411</v>
       </c>
       <c r="D101">
-        <v>-2.871737445946614</v>
+        <v>-0.2485318488430873</v>
+      </c>
+      <c r="E101">
+        <v>13</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -2114,13 +2405,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.1748303554410851</v>
+        <v>-0.4335724936316271</v>
       </c>
       <c r="C102">
-        <v>0.6158731321865708</v>
+        <v>-0.07564799676687831</v>
       </c>
       <c r="D102">
-        <v>-0.8092576649945072</v>
+        <v>-0.1920364094222542</v>
+      </c>
+      <c r="E102">
+        <v>13</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -2131,16 +2425,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.1945147299636827</v>
+        <v>-0.04151608753710945</v>
       </c>
       <c r="C103">
-        <v>0.5556021218312303</v>
+        <v>-0.2882447012772592</v>
       </c>
       <c r="D103">
-        <v>-1.158968400514606</v>
+        <v>-0.2518174443235797</v>
+      </c>
+      <c r="E103">
+        <v>13</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2148,13 +2445,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.6579262399240158</v>
+        <v>-0.1154824465246671</v>
       </c>
       <c r="C104">
-        <v>2.189842878583425</v>
+        <v>0.1172264949133116</v>
       </c>
       <c r="D104">
-        <v>-2.735149216565597</v>
+        <v>-0.1428011424611713</v>
+      </c>
+      <c r="E104">
+        <v>13</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -2165,16 +2465,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.6645437313469541</v>
+        <v>-0.4325617780824219</v>
       </c>
       <c r="C105">
-        <v>1.127420788029625</v>
+        <v>-0.2089359502012255</v>
       </c>
       <c r="D105">
-        <v>-0.7237268085710665</v>
+        <v>0.4175123251132385</v>
+      </c>
+      <c r="E105">
+        <v>13</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2182,16 +2485,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.2462530365429669</v>
+        <v>-0.02394575734318027</v>
       </c>
       <c r="C106">
-        <v>1.171829739260839</v>
+        <v>-0.2680363996602115</v>
       </c>
       <c r="D106">
-        <v>-1.519060836747449</v>
+        <v>-0.01449143090352345</v>
+      </c>
+      <c r="E106">
+        <v>13</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2199,16 +2505,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.451555871463972</v>
+        <v>-0.1130587837386621</v>
       </c>
       <c r="C107">
-        <v>0.1460513857162425</v>
+        <v>-0.5720052827186582</v>
       </c>
       <c r="D107">
-        <v>-0.4186214807122758</v>
+        <v>-0.02557482481906144</v>
+      </c>
+      <c r="E107">
+        <v>13</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2216,16 +2525,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-1.30927339709895</v>
+        <v>-0.5605923799348593</v>
       </c>
       <c r="C108">
-        <v>1.669221688077129</v>
+        <v>0.1646194763659123</v>
       </c>
       <c r="D108">
-        <v>-1.709054649639352</v>
+        <v>0.2594073626437656</v>
+      </c>
+      <c r="E108">
+        <v>13</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2233,16 +2545,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.07652464314465868</v>
+        <v>0.04400613897760175</v>
       </c>
       <c r="C109">
-        <v>0.6427296986277721</v>
+        <v>-0.2538990708861734</v>
       </c>
       <c r="D109">
-        <v>-1.722208136681164</v>
+        <v>-0.3076139217399921</v>
+      </c>
+      <c r="E109">
+        <v>13</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2250,16 +2565,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.40192820358451</v>
+        <v>0.05982386557184316</v>
       </c>
       <c r="C110">
-        <v>0.4616836973847388</v>
+        <v>-0.07434617980384366</v>
       </c>
       <c r="D110">
-        <v>-0.5144355957896211</v>
+        <v>-0.4487217689643279</v>
+      </c>
+      <c r="E110">
+        <v>13</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2267,16 +2585,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.02735106579997049</v>
+        <v>0.1141652342241561</v>
       </c>
       <c r="C111">
-        <v>0.5794257381149098</v>
+        <v>-0.2459149097186916</v>
       </c>
       <c r="D111">
-        <v>-1.271127130199646</v>
+        <v>-0.4313086815073194</v>
+      </c>
+      <c r="E111">
+        <v>13</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2284,16 +2605,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.80514254377039</v>
+        <v>-0.5779987439807729</v>
       </c>
       <c r="C112">
-        <v>1.115820032942801</v>
+        <v>0.02835426318391299</v>
       </c>
       <c r="D112">
-        <v>-1.489555889111785</v>
+        <v>0.1635956481502792</v>
+      </c>
+      <c r="E112">
+        <v>13</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2301,13 +2625,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.6292324566171169</v>
+        <v>-0.4419266665735342</v>
       </c>
       <c r="C113">
-        <v>0.8229883981012142</v>
+        <v>0.2939072008204441</v>
       </c>
       <c r="D113">
-        <v>-1.297886952596537</v>
+        <v>-0.4237671265878601</v>
+      </c>
+      <c r="E113">
+        <v>13</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -2318,16 +2645,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-3.43356679779945</v>
+        <v>-2.287060165596624</v>
       </c>
       <c r="C114">
-        <v>3.771046973343849</v>
+        <v>0.6732273438150271</v>
       </c>
       <c r="D114">
-        <v>2.379919537399243</v>
+        <v>1.167391825422453</v>
+      </c>
+      <c r="E114">
+        <v>13</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2335,13 +2665,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.3610249890192224</v>
+        <v>-0.3079942724506598</v>
       </c>
       <c r="C115">
-        <v>1.213668691910826</v>
+        <v>-0.01681026981126203</v>
       </c>
       <c r="D115">
-        <v>-1.637324649442415</v>
+        <v>-0.03618170250949568</v>
+      </c>
+      <c r="E115">
+        <v>13</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -2352,13 +2685,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.4156397012849209</v>
+        <v>-0.2804594447904643</v>
       </c>
       <c r="C116">
-        <v>1.834414426339567</v>
+        <v>0.123611188896516</v>
       </c>
       <c r="D116">
-        <v>-2.472522667794542</v>
+        <v>-0.1174466928037528</v>
+      </c>
+      <c r="E116">
+        <v>13</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -2369,13 +2705,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-1.301172924861843</v>
+        <v>-0.7688505016448786</v>
       </c>
       <c r="C117">
-        <v>2.282438368720188</v>
+        <v>0.5107423199557417</v>
       </c>
       <c r="D117">
-        <v>-2.197805341767189</v>
+        <v>-0.07748575473279441</v>
+      </c>
+      <c r="E117">
+        <v>13</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -2386,13 +2725,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.0190359532499218</v>
+        <v>-0.08254062329929573</v>
       </c>
       <c r="C118">
-        <v>1.514988872928431</v>
+        <v>0.2320175292571177</v>
       </c>
       <c r="D118">
-        <v>-1.023974173182852</v>
+        <v>-0.2671553121491071</v>
+      </c>
+      <c r="E118">
+        <v>13</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -2403,13 +2745,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-5.074620382019011</v>
+        <v>-3.637975262802391</v>
       </c>
       <c r="C119">
-        <v>4.240610394949915</v>
+        <v>0.7079611197696216</v>
       </c>
       <c r="D119">
-        <v>5.353252944370803</v>
+        <v>2.030093932757643</v>
+      </c>
+      <c r="E119">
+        <v>13</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -2420,16 +2765,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-2.170840551661668</v>
+        <v>-0.9402779951875408</v>
       </c>
       <c r="C120">
-        <v>2.271507887359169</v>
+        <v>0.2368429097693279</v>
       </c>
       <c r="D120">
-        <v>-2.248842680594873</v>
+        <v>0.4031884044294219</v>
+      </c>
+      <c r="E120">
+        <v>13</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2437,13 +2785,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.7208739474166883</v>
+        <v>-0.4002323022207378</v>
       </c>
       <c r="C121">
-        <v>1.490613870527221</v>
+        <v>0.416059102220502</v>
       </c>
       <c r="D121">
-        <v>-2.657693323027675</v>
+        <v>-0.7389431368272459</v>
+      </c>
+      <c r="E121">
+        <v>13</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -2454,13 +2805,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.07168300819432849</v>
+        <v>-0.0473336961320453</v>
       </c>
       <c r="C122">
-        <v>1.313672608706753</v>
+        <v>0.4433243620459233</v>
       </c>
       <c r="D122">
-        <v>-2.875018034870389</v>
+        <v>-1.020187405256257</v>
+      </c>
+      <c r="E122">
+        <v>13</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -2471,16 +2825,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.3702142278795768</v>
+        <v>0.3285889777912793</v>
       </c>
       <c r="C123">
-        <v>1.524002954840771</v>
+        <v>0.2370228009462709</v>
       </c>
       <c r="D123">
-        <v>-3.287223001041277</v>
+        <v>-1.400231641938101</v>
+      </c>
+      <c r="E123">
+        <v>13</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2488,13 +2845,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.6408898475356631</v>
+        <v>-0.3797346455912838</v>
       </c>
       <c r="C124">
-        <v>2.012296431796101</v>
+        <v>0.5219532266287112</v>
       </c>
       <c r="D124">
-        <v>-2.06129186880641</v>
+        <v>-0.3923068836418965</v>
+      </c>
+      <c r="E124">
+        <v>13</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -2505,13 +2865,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.7998026840281328</v>
+        <v>-0.3886170806724307</v>
       </c>
       <c r="C125">
-        <v>2.112499722648177</v>
+        <v>0.4189709118909328</v>
       </c>
       <c r="D125">
-        <v>-2.461151750271521</v>
+        <v>-0.3679433861360526</v>
+      </c>
+      <c r="E125">
+        <v>13</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -2522,16 +2885,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-6.754166128018598</v>
+        <v>-4.458714800047535</v>
       </c>
       <c r="C126">
-        <v>6.615180504573813</v>
+        <v>1.164950247179066</v>
       </c>
       <c r="D126">
-        <v>6.3409875601287</v>
+        <v>2.70167053684565</v>
+      </c>
+      <c r="E126">
+        <v>13</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2539,13 +2905,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.8210240638482216</v>
+        <v>-0.6096262940703845</v>
       </c>
       <c r="C127">
-        <v>2.352468134731461</v>
+        <v>0.6123356193412623</v>
       </c>
       <c r="D127">
-        <v>-2.439794144289378</v>
+        <v>-0.2405101120350053</v>
+      </c>
+      <c r="E127">
+        <v>13</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -2556,16 +2925,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.9710483260129412</v>
+        <v>-0.9783791461595474</v>
       </c>
       <c r="C128">
-        <v>1.991949629408369</v>
+        <v>0.03738488634187806</v>
       </c>
       <c r="D128">
-        <v>1.321546038180114</v>
+        <v>0.5716097825990762</v>
+      </c>
+      <c r="E128">
+        <v>13</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2573,16 +2945,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-1.015684353339828</v>
+        <v>-0.6377693298321215</v>
       </c>
       <c r="C129">
-        <v>1.203435603810013</v>
+        <v>0.1240414150735289</v>
       </c>
       <c r="D129">
-        <v>-0.8683824968210497</v>
+        <v>0.1965415017661828</v>
+      </c>
+      <c r="E129">
+        <v>13</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2590,13 +2965,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.9499511134148902</v>
+        <v>-0.4521451739321216</v>
       </c>
       <c r="C130">
-        <v>0.9631435381573829</v>
+        <v>0.02765158809989515</v>
       </c>
       <c r="D130">
-        <v>-1.027051438324949</v>
+        <v>0.01333421239076657</v>
+      </c>
+      <c r="E130">
+        <v>13</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -2607,13 +2985,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-2.140916346567441</v>
+        <v>-1.226346638558341</v>
       </c>
       <c r="C131">
-        <v>2.118064332161915</v>
+        <v>0.7441962432012146</v>
       </c>
       <c r="D131">
-        <v>-1.555697184587328</v>
+        <v>0.07190628952391356</v>
+      </c>
+      <c r="E131">
+        <v>13</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -2624,13 +3005,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-2.21287296276688</v>
+        <v>-0.9619788352529391</v>
       </c>
       <c r="C132">
-        <v>2.379624258151087</v>
+        <v>0.7716734129173246</v>
       </c>
       <c r="D132">
-        <v>-2.126051444177034</v>
+        <v>-0.1896460137665453</v>
+      </c>
+      <c r="E132">
+        <v>13</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -2641,16 +3025,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-1.201781073181265</v>
+        <v>-0.4128572597332519</v>
       </c>
       <c r="C133">
-        <v>1.982038569280696</v>
+        <v>0.08974398971688707</v>
       </c>
       <c r="D133">
-        <v>-1.707811616057921</v>
+        <v>0.1386306738749313</v>
+      </c>
+      <c r="E133">
+        <v>13</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2658,16 +3045,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-1.444807098133908</v>
+        <v>-0.653891107940165</v>
       </c>
       <c r="C134">
-        <v>1.821640732291729</v>
+        <v>0.06609092508760286</v>
       </c>
       <c r="D134">
-        <v>-1.776889146262417</v>
+        <v>0.3177281722172014</v>
+      </c>
+      <c r="E134">
+        <v>13</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -2675,13 +3065,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-0.8018205361073933</v>
+        <v>-0.4680647551370997</v>
       </c>
       <c r="C135">
-        <v>1.454585906995281</v>
+        <v>0.4467368705863556</v>
       </c>
       <c r="D135">
-        <v>-2.081092487150511</v>
+        <v>-0.8188288704452511</v>
+      </c>
+      <c r="E135">
+        <v>13</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -2692,13 +3085,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-1.362562856656503</v>
+        <v>-0.5867617790937767</v>
       </c>
       <c r="C136">
-        <v>1.786204763079787</v>
+        <v>0.3984641094504665</v>
       </c>
       <c r="D136">
-        <v>-2.173760282404894</v>
+        <v>-0.3573233658569698</v>
+      </c>
+      <c r="E136">
+        <v>13</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -2709,16 +3105,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-3.644293218505854</v>
+        <v>-2.359647141326934</v>
       </c>
       <c r="C137">
-        <v>4.125951230832402</v>
+        <v>0.4948127523118611</v>
       </c>
       <c r="D137">
-        <v>2.744842639544434</v>
+        <v>1.383609560651138</v>
+      </c>
+      <c r="E137">
+        <v>13</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -2726,13 +3125,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.7330576458525375</v>
+        <v>-0.2262999737501495</v>
       </c>
       <c r="C138">
-        <v>2.684444704095982</v>
+        <v>0.4853375139130554</v>
       </c>
       <c r="D138">
-        <v>-3.616092841875307</v>
+        <v>-0.5418788464796671</v>
+      </c>
+      <c r="E138">
+        <v>13</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -2743,13 +3145,16 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-0.3707774703959517</v>
+        <v>-0.204245825155954</v>
       </c>
       <c r="C139">
-        <v>1.888151089715131</v>
+        <v>0.4789612582565168</v>
       </c>
       <c r="D139">
-        <v>-2.860267566601965</v>
+        <v>-0.7376071212894666</v>
+      </c>
+      <c r="E139">
+        <v>13</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -2760,16 +3165,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-0.1639560930826514</v>
+        <v>-0.1801470672102689</v>
       </c>
       <c r="C140">
-        <v>0.1812886565144533</v>
+        <v>-0.4211301621010649</v>
       </c>
       <c r="D140">
-        <v>-0.5525335303743008</v>
+        <v>-0.02891849070061492</v>
+      </c>
+      <c r="E140">
+        <v>14</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -2777,16 +3185,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0.1827294871219922</v>
+        <v>-0.2094961497266147</v>
       </c>
       <c r="C141">
-        <v>-0.00421428878701402</v>
+        <v>-0.3816365980947323</v>
       </c>
       <c r="D141">
-        <v>-0.3715513098003681</v>
+        <v>-0.08811883992148278</v>
+      </c>
+      <c r="E141">
+        <v>14</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -2794,13 +3205,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.2458204658719934</v>
+        <v>-0.2613166210846414</v>
       </c>
       <c r="C142">
-        <v>0.7413632079262208</v>
+        <v>-0.1331331169073622</v>
       </c>
       <c r="D142">
-        <v>-1.403853616378803</v>
+        <v>-0.3448133545148958</v>
+      </c>
+      <c r="E142">
+        <v>14</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -2811,16 +3225,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.02610743061036924</v>
+        <v>-0.1469341071836413</v>
       </c>
       <c r="C143">
-        <v>0.4233363879412416</v>
+        <v>-0.2376275512307547</v>
       </c>
       <c r="D143">
-        <v>-1.027625129313877</v>
+        <v>-0.3598375649770983</v>
+      </c>
+      <c r="E143">
+        <v>14</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -2828,16 +3245,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.009450254314272488</v>
+        <v>-0.09493649999577264</v>
       </c>
       <c r="C144">
-        <v>0.224449895179094</v>
+        <v>-0.2707599512473268</v>
       </c>
       <c r="D144">
-        <v>-0.7361275960599459</v>
+        <v>-0.3262946051466428</v>
+      </c>
+      <c r="E144">
+        <v>14</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -2845,16 +3265,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.02100237420519957</v>
+        <v>0.04000164884271906</v>
       </c>
       <c r="C145">
-        <v>1.046718837450139</v>
+        <v>-0.06106570352050236</v>
       </c>
       <c r="D145">
-        <v>-1.887683265142277</v>
+        <v>-0.4784219281506308</v>
+      </c>
+      <c r="E145">
+        <v>14</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -2862,16 +3285,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.0824626559631032</v>
+        <v>-0.04863907665773659</v>
       </c>
       <c r="C146">
-        <v>0.2206130488573318</v>
+        <v>-0.09974884861143346</v>
       </c>
       <c r="D146">
-        <v>-1.0867096525887</v>
+        <v>-0.4469200897070892</v>
+      </c>
+      <c r="E146">
+        <v>14</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -2879,16 +3305,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.4382978281357779</v>
+        <v>0.5880061060180872</v>
       </c>
       <c r="C147">
-        <v>1.881443580306822</v>
+        <v>0.09420133295569746</v>
       </c>
       <c r="D147">
-        <v>-3.97497688057577</v>
+        <v>-0.7456769890087431</v>
+      </c>
+      <c r="E147">
+        <v>14</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -2896,13 +3325,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.155648423492282</v>
+        <v>0.7450694943406064</v>
       </c>
       <c r="C148">
-        <v>-0.515211061783291</v>
+        <v>-0.8485578701526024</v>
       </c>
       <c r="D148">
-        <v>-1.469753298659273</v>
+        <v>-0.8161874800539396</v>
+      </c>
+      <c r="E148">
+        <v>14</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -2913,16 +3345,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.1096228567723652</v>
+        <v>0.02867911825082892</v>
       </c>
       <c r="C149">
-        <v>1.054719200057911</v>
+        <v>-0.03043055861466902</v>
       </c>
       <c r="D149">
-        <v>-1.943555050235013</v>
+        <v>-0.3488637274753015</v>
+      </c>
+      <c r="E149">
+        <v>14</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -2930,16 +3365,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.5330084356976672</v>
+        <v>0.3870931217722442</v>
       </c>
       <c r="C150">
-        <v>1.365571290174063</v>
+        <v>0.01117609920669857</v>
       </c>
       <c r="D150">
-        <v>-3.20478556037505</v>
+        <v>-0.9448235890687533</v>
+      </c>
+      <c r="E150">
+        <v>14</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -2947,13 +3385,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.8101216072589446</v>
+        <v>0.4314657080260386</v>
       </c>
       <c r="C151">
-        <v>2.937654511061774</v>
+        <v>0.8880975107122926</v>
       </c>
       <c r="D151">
-        <v>-5.040879545141247</v>
+        <v>-1.001117438620743</v>
+      </c>
+      <c r="E151">
+        <v>14</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -2964,16 +3405,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.8527572639981087</v>
+        <v>0.6159484087657749</v>
       </c>
       <c r="C152">
-        <v>1.002317811122858</v>
+        <v>-0.2114271640485779</v>
       </c>
       <c r="D152">
-        <v>-2.966178176207855</v>
+        <v>-1.205527465719212</v>
+      </c>
+      <c r="E152">
+        <v>14</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -2981,13 +3425,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.7762515091939575</v>
+        <v>0.3035971063167203</v>
       </c>
       <c r="C153">
-        <v>0.4573571168004512</v>
+        <v>-0.158055402297263</v>
       </c>
       <c r="D153">
-        <v>-1.865309029879215</v>
+        <v>-0.9201949612603036</v>
+      </c>
+      <c r="E153">
+        <v>14</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -2998,16 +3445,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.001913346123015636</v>
+        <v>0.0776060988837981</v>
       </c>
       <c r="C154">
-        <v>1.041585487090486</v>
+        <v>-0.1313193654832618</v>
       </c>
       <c r="D154">
-        <v>-2.047835836914453</v>
+        <v>-0.3957599481965565</v>
+      </c>
+      <c r="E154">
+        <v>14</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3015,16 +3465,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.4423288703105811</v>
+        <v>-0.3368175116276577</v>
       </c>
       <c r="C155">
-        <v>-0.009771441182290674</v>
+        <v>-0.434323504162461</v>
       </c>
       <c r="D155">
-        <v>-0.2577176354088057</v>
+        <v>-0.01788992868117337</v>
+      </c>
+      <c r="E155">
+        <v>14</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3032,16 +3485,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.5024995005509707</v>
+        <v>0.3898007317254514</v>
       </c>
       <c r="C156">
-        <v>1.420624589704108</v>
+        <v>0.1123730008374219</v>
       </c>
       <c r="D156">
-        <v>-3.098961019734806</v>
+        <v>-1.004051701093524</v>
+      </c>
+      <c r="E156">
+        <v>14</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3049,13 +3505,16 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-0.4340656493898652</v>
+        <v>-0.1074492310818757</v>
       </c>
       <c r="C157">
-        <v>0.7033635363864507</v>
+        <v>-0.04596672824697402</v>
       </c>
       <c r="D157">
-        <v>-1.792895958073221</v>
+        <v>-0.06060937328613245</v>
+      </c>
+      <c r="E157">
+        <v>14</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -3066,16 +3525,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.06767123335440117</v>
+        <v>0.06097607490416723</v>
       </c>
       <c r="C158">
-        <v>0.5665927012150734</v>
+        <v>-0.1873270183781309</v>
       </c>
       <c r="D158">
-        <v>-1.588294775541346</v>
+        <v>-0.5364291748897096</v>
+      </c>
+      <c r="E158">
+        <v>14</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3083,16 +3545,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.05647273411739762</v>
+        <v>0.2302832530580202</v>
       </c>
       <c r="C159">
-        <v>1.417716463940325</v>
+        <v>0.2123526924138694</v>
       </c>
       <c r="D159">
-        <v>-2.575537985374062</v>
+        <v>-0.5890000779921954</v>
+      </c>
+      <c r="E159">
+        <v>14</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3100,16 +3565,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-0.06620334021959551</v>
+        <v>0.1765670175178284</v>
       </c>
       <c r="C160">
-        <v>0.7164344308527671</v>
+        <v>-0.3803294839775987</v>
       </c>
       <c r="D160">
-        <v>-1.646258505022192</v>
+        <v>-0.04085914617697006</v>
+      </c>
+      <c r="E160">
+        <v>14</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3117,16 +3585,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.4476105154111871</v>
+        <v>0.1932206650722141</v>
       </c>
       <c r="C161">
-        <v>1.109213501775806</v>
+        <v>-0.1306304962811351</v>
       </c>
       <c r="D161">
-        <v>-1.91783265663154</v>
+        <v>-0.1477345639436098</v>
+      </c>
+      <c r="E161">
+        <v>14</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3134,16 +3605,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.10454014867638</v>
+        <v>0.1540932902491247</v>
       </c>
       <c r="C162">
-        <v>1.209497286620782</v>
+        <v>0.02639876362834676</v>
       </c>
       <c r="D162">
-        <v>-2.367073281737774</v>
+        <v>-0.05822280407509764</v>
+      </c>
+      <c r="E162">
+        <v>14</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3151,13 +3625,16 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-0.3706716615400163</v>
+        <v>0.02211925471734477</v>
       </c>
       <c r="C163">
-        <v>1.818385409683875</v>
+        <v>0.2667806593260677</v>
       </c>
       <c r="D163">
-        <v>-2.75823351772105</v>
+        <v>-0.3407935935839643</v>
+      </c>
+      <c r="E163">
+        <v>14</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -3168,16 +3645,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.3445254330242284</v>
+        <v>0.3467927238491049</v>
       </c>
       <c r="C164">
-        <v>1.807776068885647</v>
+        <v>0.3195000101658286</v>
       </c>
       <c r="D164">
-        <v>-3.410795673400067</v>
+        <v>-0.5189007577238158</v>
+      </c>
+      <c r="E164">
+        <v>14</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3185,16 +3665,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.1169152712981927</v>
+        <v>0.4910968721867677</v>
       </c>
       <c r="C165">
-        <v>1.86683322615779</v>
+        <v>0.3486768651236811</v>
       </c>
       <c r="D165">
-        <v>-3.340079141759933</v>
+        <v>-0.7851355414070988</v>
+      </c>
+      <c r="E165">
+        <v>14</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3202,13 +3685,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.7816832843670714</v>
+        <v>0.3796519059827769</v>
       </c>
       <c r="C166">
-        <v>0.7367598391889322</v>
+        <v>-0.1091957119833522</v>
       </c>
       <c r="D166">
-        <v>-2.164305852938543</v>
+        <v>-0.7824886315889642</v>
+      </c>
+      <c r="E166">
+        <v>14</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3219,13 +3705,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.5628632287363515</v>
+        <v>0.2038240088438481</v>
       </c>
       <c r="C167">
-        <v>-0.03349087722989652</v>
+        <v>-0.4547413877481223</v>
       </c>
       <c r="D167">
-        <v>-1.12300122034041</v>
+        <v>-0.249589153539176</v>
+      </c>
+      <c r="E167">
+        <v>14</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3236,16 +3725,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.1076918460424515</v>
+        <v>0.07478331670647542</v>
       </c>
       <c r="C168">
-        <v>1.000416263651839</v>
+        <v>0.01446361677873534</v>
       </c>
       <c r="D168">
-        <v>-2.114194188938877</v>
+        <v>-0.1951016383621971</v>
+      </c>
+      <c r="E168">
+        <v>14</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3253,16 +3745,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.02500314651002333</v>
+        <v>-0.2046836809493747</v>
       </c>
       <c r="C169">
-        <v>0.09067810854157277</v>
+        <v>-0.2544517606520117</v>
       </c>
       <c r="D169">
-        <v>-0.5911450859938602</v>
+        <v>-0.1935680390019322</v>
+      </c>
+      <c r="E169">
+        <v>14</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3270,13 +3765,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.09088519114796534</v>
+        <v>0.2790968223705061</v>
       </c>
       <c r="C170">
-        <v>2.059064481480766</v>
+        <v>0.492503213845941</v>
       </c>
       <c r="D170">
-        <v>-3.449609497238397</v>
+        <v>-0.6745997385960751</v>
+      </c>
+      <c r="E170">
+        <v>14</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -3287,16 +3785,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.07659306503936603</v>
+        <v>0.5854887516502914</v>
       </c>
       <c r="C171">
-        <v>2.269965319046515</v>
+        <v>0.5629823097765834</v>
       </c>
       <c r="D171">
-        <v>-3.747969449928295</v>
+        <v>-1.112440635420573</v>
+      </c>
+      <c r="E171">
+        <v>14</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3304,13 +3805,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.2093881707952336</v>
+        <v>-0.185007177486027</v>
       </c>
       <c r="C172">
-        <v>0.7908448317589193</v>
+        <v>0.03458631856102715</v>
       </c>
       <c r="D172">
-        <v>-1.374715573289557</v>
+        <v>-0.2444023789526616</v>
+      </c>
+      <c r="E172">
+        <v>14</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -3321,13 +3825,16 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-0.1187209838761975</v>
+        <v>-0.05738221866818316</v>
       </c>
       <c r="C173">
-        <v>0.4439562167901584</v>
+        <v>0.006655698936809451</v>
       </c>
       <c r="D173">
-        <v>-0.9218730272254766</v>
+        <v>-0.5061063890012616</v>
+      </c>
+      <c r="E173">
+        <v>14</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -3338,16 +3845,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-0.6627421282081601</v>
+        <v>-0.3667829461187746</v>
       </c>
       <c r="C174">
-        <v>0.2447095080286422</v>
+        <v>-0.2247700591705633</v>
       </c>
       <c r="D174">
-        <v>-1.030781803174767</v>
+        <v>-0.1299530363227945</v>
+      </c>
+      <c r="E174">
+        <v>14</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3355,13 +3865,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.349182383613643</v>
+        <v>0.2272155146930422</v>
       </c>
       <c r="C175">
-        <v>-0.7876920302467826</v>
+        <v>-0.8876581004860187</v>
       </c>
       <c r="D175">
-        <v>-0.3318916272778037</v>
+        <v>-0.1194907197451177</v>
+      </c>
+      <c r="E175">
+        <v>14</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -3372,16 +3885,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.02343805042151059</v>
+        <v>0.06481434583133761</v>
       </c>
       <c r="C176">
-        <v>0.5331807834533381</v>
+        <v>-0.249833090583836</v>
       </c>
       <c r="D176">
-        <v>-1.234197973535529</v>
+        <v>-0.1741762018699444</v>
+      </c>
+      <c r="E176">
+        <v>14</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3389,16 +3905,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.1024136121141717</v>
+        <v>0.111314121674474</v>
       </c>
       <c r="C177">
-        <v>0.6704023448857265</v>
+        <v>-0.04226301778638335</v>
       </c>
       <c r="D177">
-        <v>-1.567387286017245</v>
+        <v>-0.331552779054789</v>
+      </c>
+      <c r="E177">
+        <v>14</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3406,13 +3925,16 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-0.3775558634137066</v>
+        <v>-0.2076915566427744</v>
       </c>
       <c r="C178">
-        <v>0.8476867855453952</v>
+        <v>0.0788749166236577</v>
       </c>
       <c r="D178">
-        <v>-1.519728817203845</v>
+        <v>-0.3368700927561407</v>
+      </c>
+      <c r="E178">
+        <v>14</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -3423,13 +3945,16 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0.1549706418449198</v>
+        <v>-0.2403146916782551</v>
       </c>
       <c r="C179">
-        <v>-0.1246321014212906</v>
+        <v>-0.3467546305062191</v>
       </c>
       <c r="D179">
-        <v>-0.04319592601591105</v>
+        <v>-0.04940784651759883</v>
+      </c>
+      <c r="E179">
+        <v>14</v>
       </c>
       <c r="F179">
         <v>2</v>
@@ -3440,13 +3965,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.04903134261321274</v>
+        <v>-0.3236509888956983</v>
       </c>
       <c r="C180">
-        <v>-0.2429631364149792</v>
+        <v>-0.1885529145694185</v>
       </c>
       <c r="D180">
-        <v>0.1410510813249038</v>
+        <v>-0.1238040687739169</v>
+      </c>
+      <c r="E180">
+        <v>14</v>
       </c>
       <c r="F180">
         <v>2</v>
@@ -3457,13 +3985,16 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.5319585109033715</v>
+        <v>-0.3879354286318503</v>
       </c>
       <c r="C181">
-        <v>0.6285917311524188</v>
+        <v>0.00960944124528515</v>
       </c>
       <c r="D181">
-        <v>-0.7766943396212597</v>
+        <v>-0.2582008151189654</v>
+      </c>
+      <c r="E181">
+        <v>14</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -3474,13 +4005,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0.2001071665639524</v>
+        <v>-0.3414661154711676</v>
       </c>
       <c r="C182">
-        <v>-0.07311161915139763</v>
+        <v>-0.31314480595723</v>
       </c>
       <c r="D182">
-        <v>0.07990749255106855</v>
+        <v>0.2777368907818301</v>
+      </c>
+      <c r="E182">
+        <v>14</v>
       </c>
       <c r="F182">
         <v>2</v>
@@ -3491,16 +4025,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-0.2338898586001416</v>
+        <v>-0.3925795803329152</v>
       </c>
       <c r="C183">
-        <v>0.01438050908750965</v>
+        <v>-0.3542997547466917</v>
       </c>
       <c r="D183">
-        <v>-0.1406772256543204</v>
+        <v>0.2091698299248909</v>
+      </c>
+      <c r="E183">
+        <v>14</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3508,13 +4045,16 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.6354795781161593</v>
+        <v>0.5291057948624023</v>
       </c>
       <c r="C184">
-        <v>2.062467905078014</v>
+        <v>0.5873736439219022</v>
       </c>
       <c r="D184">
-        <v>-3.894359970171625</v>
+        <v>-1.050257581937519</v>
+      </c>
+      <c r="E184">
+        <v>14</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -3525,16 +4065,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.1313606587310203</v>
+        <v>-0.1517661872469135</v>
       </c>
       <c r="C185">
-        <v>1.033579995310959</v>
+        <v>-0.006483376461317109</v>
       </c>
       <c r="D185">
-        <v>-1.905172169676974</v>
+        <v>0.2077376808369905</v>
+      </c>
+      <c r="E185">
+        <v>14</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -3542,16 +4085,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>4.365844793689836</v>
+        <v>0.5046352233828453</v>
       </c>
       <c r="C186">
-        <v>-0.100420535258115</v>
+        <v>0.9992704031290636</v>
       </c>
       <c r="D186">
-        <v>-4.022757551262494</v>
+        <v>0.1478721692662199</v>
+      </c>
+      <c r="E186">
+        <v>15</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -3559,16 +4105,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.1784118702111868</v>
+        <v>-0.1276397195188547</v>
       </c>
       <c r="C187">
-        <v>0.3272869125408117</v>
+        <v>-0.2397449148057265</v>
       </c>
       <c r="D187">
-        <v>-1.18530513804199</v>
+        <v>-0.1843563865513468</v>
+      </c>
+      <c r="E187">
+        <v>15</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -3576,16 +4125,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.2764467316558923</v>
+        <v>0.005851474277997815</v>
       </c>
       <c r="C188">
-        <v>0.5157764619490249</v>
+        <v>-0.06986268047294991</v>
       </c>
       <c r="D188">
-        <v>-1.339019260561254</v>
+        <v>-0.6875684050717965</v>
+      </c>
+      <c r="E188">
+        <v>15</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -3593,13 +4145,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.5300666768814923</v>
+        <v>0.08402264332169962</v>
       </c>
       <c r="C189">
-        <v>0.3202612727198128</v>
+        <v>-0.1917901926483199</v>
       </c>
       <c r="D189">
-        <v>-1.654549905711926</v>
+        <v>-0.7085805342417506</v>
+      </c>
+      <c r="E189">
+        <v>15</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -3610,13 +4165,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.3148069532887363</v>
+        <v>-0.1482180272943932</v>
       </c>
       <c r="C190">
-        <v>0.7066382460916699</v>
+        <v>-0.09076273226006279</v>
       </c>
       <c r="D190">
-        <v>-1.794621213975303</v>
+        <v>-0.5614681355552859</v>
+      </c>
+      <c r="E190">
+        <v>15</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -3627,16 +4185,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.913838289789368</v>
+        <v>-0.4945893584560203</v>
       </c>
       <c r="C191">
-        <v>0.3379055606204898</v>
+        <v>-0.1928583114123107</v>
       </c>
       <c r="D191">
-        <v>-0.1329107101090662</v>
+        <v>-0.1536405359557927</v>
+      </c>
+      <c r="E191">
+        <v>15</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -3644,16 +4205,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.3353582992509301</v>
+        <v>0.2005822125964952</v>
       </c>
       <c r="C192">
-        <v>0.6960095554872411</v>
+        <v>-0.1062891546568929</v>
       </c>
       <c r="D192">
-        <v>-1.794465635070012</v>
+        <v>-0.9085457962455094</v>
+      </c>
+      <c r="E192">
+        <v>15</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -3661,13 +4225,16 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-0.1903444178323325</v>
+        <v>-0.3632481881894142</v>
       </c>
       <c r="C193">
-        <v>0.08798511329579173</v>
+        <v>-0.1831582178886287</v>
       </c>
       <c r="D193">
-        <v>-0.3929974638151122</v>
+        <v>-0.2014588126063642</v>
+      </c>
+      <c r="E193">
+        <v>15</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -3678,16 +4245,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.2385765500967144</v>
+        <v>-0.507133603513358</v>
       </c>
       <c r="C194">
-        <v>0.4137098992759648</v>
+        <v>-0.07480723243615298</v>
       </c>
       <c r="D194">
-        <v>-0.7269738393766972</v>
+        <v>-0.06850112618303965</v>
+      </c>
+      <c r="E194">
+        <v>15</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -3695,16 +4265,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.6711866854058055</v>
+        <v>-0.2237780544464196</v>
       </c>
       <c r="C195">
-        <v>0.6247607091658131</v>
+        <v>0.1615262894279884</v>
       </c>
       <c r="D195">
-        <v>-1.40405976786739</v>
+        <v>-0.4123743589213362</v>
+      </c>
+      <c r="E195">
+        <v>15</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -3712,16 +4285,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0.4499317462681895</v>
+        <v>-0.6543420165602737</v>
       </c>
       <c r="C196">
-        <v>0.8315660872501444</v>
+        <v>-0.006203460092904317</v>
       </c>
       <c r="D196">
-        <v>-0.7122065695226077</v>
+        <v>0.1853690444975832</v>
+      </c>
+      <c r="E196">
+        <v>15</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -3729,16 +4305,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.3347795933847285</v>
+        <v>-0.3027408303732487</v>
       </c>
       <c r="C197">
-        <v>0.4772958236296719</v>
+        <v>-0.2070349238613368</v>
       </c>
       <c r="D197">
-        <v>-0.7829911353226294</v>
+        <v>-0.1107409375194915</v>
+      </c>
+      <c r="E197">
+        <v>15</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -3746,16 +4325,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.5224645204518308</v>
+        <v>-0.6690810603703397</v>
       </c>
       <c r="C198">
-        <v>0.5315661847552867</v>
+        <v>-0.1659067836626702</v>
       </c>
       <c r="D198">
-        <v>-0.2998063765454794</v>
+        <v>0.3456736891581577</v>
+      </c>
+      <c r="E198">
+        <v>15</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -3763,13 +4345,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.7317837044474693</v>
+        <v>0.123759617841005</v>
       </c>
       <c r="C199">
-        <v>0.4353312885327548</v>
+        <v>-0.1271814187752268</v>
       </c>
       <c r="D199">
-        <v>-1.824785867815335</v>
+        <v>-0.6525743717466008</v>
+      </c>
+      <c r="E199">
+        <v>15</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -3780,13 +4365,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.3336400901856882</v>
+        <v>-0.02473859929392153</v>
       </c>
       <c r="C200">
-        <v>0.2248306382919759</v>
+        <v>-0.3483261384849197</v>
       </c>
       <c r="D200">
-        <v>-0.9990914570801682</v>
+        <v>-0.1167264598059474</v>
+      </c>
+      <c r="E200">
+        <v>15</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -3797,16 +4385,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-0.2439142970797039</v>
+        <v>-0.382204380815244</v>
       </c>
       <c r="C201">
-        <v>0.6269789639535587</v>
+        <v>-0.1820682774277689</v>
       </c>
       <c r="D201">
-        <v>-1.121350610023329</v>
+        <v>0.07473729787703184</v>
+      </c>
+      <c r="E201">
+        <v>15</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -3814,13 +4405,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.2318752517938618</v>
+        <v>0.1378728659035058</v>
       </c>
       <c r="C202">
-        <v>-0.0351950991335287</v>
+        <v>-0.2832139262702654</v>
       </c>
       <c r="D202">
-        <v>-1.024065338937637</v>
+        <v>-0.5941766840299473</v>
+      </c>
+      <c r="E202">
+        <v>15</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -3831,13 +4425,16 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.9777155438164549</v>
+        <v>0.1694994016274771</v>
       </c>
       <c r="C203">
-        <v>0.4034787123419491</v>
+        <v>-0.1192378186603911</v>
       </c>
       <c r="D203">
-        <v>-1.733846875411754</v>
+        <v>-0.60979710145538</v>
+      </c>
+      <c r="E203">
+        <v>15</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -3848,13 +4445,16 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>-0.05954066022033733</v>
+        <v>0.07766698933633254</v>
       </c>
       <c r="C204">
-        <v>1.516708875431664</v>
+        <v>0.3006652911092176</v>
       </c>
       <c r="D204">
-        <v>-2.696016855310181</v>
+        <v>-1.192932710523041</v>
+      </c>
+      <c r="E204">
+        <v>15</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -3865,13 +4465,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.4923400984511654</v>
+        <v>-0.3450292895410059</v>
       </c>
       <c r="C205">
-        <v>0.8398176609321163</v>
+        <v>0.1461249007581568</v>
       </c>
       <c r="D205">
-        <v>-1.247030123403892</v>
+        <v>-0.2826201502005733</v>
+      </c>
+      <c r="E205">
+        <v>15</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -3882,16 +4485,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-0.297681450119071</v>
+        <v>-0.7031781797429225</v>
       </c>
       <c r="C206">
-        <v>0.07162779010497811</v>
+        <v>-0.3456590017227748</v>
       </c>
       <c r="D206">
-        <v>-0.05449088868889096</v>
+        <v>0.3786012970252334</v>
+      </c>
+      <c r="E206">
+        <v>15</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -3899,16 +4505,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1.08787424461949</v>
+        <v>-0.3956342120662212</v>
       </c>
       <c r="C207">
-        <v>0.2171447052104919</v>
+        <v>-0.1176846272730365</v>
       </c>
       <c r="D207">
-        <v>-0.5399461267185844</v>
+        <v>0.3509528383354696</v>
+      </c>
+      <c r="E207">
+        <v>15</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -3916,13 +4525,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-0.3949516366622526</v>
+        <v>-0.3568574178062471</v>
       </c>
       <c r="C208">
-        <v>-0.200822974975985</v>
+        <v>-0.7090573174559269</v>
       </c>
       <c r="D208">
-        <v>-0.05313505589315326</v>
+        <v>0.3060938596627479</v>
+      </c>
+      <c r="E208">
+        <v>15</v>
       </c>
       <c r="F208">
         <v>2</v>
@@ -3933,13 +4545,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.4661612050998603</v>
+        <v>-0.3250923340166094</v>
       </c>
       <c r="C209">
-        <v>-0.0753114758654585</v>
+        <v>-0.2637605063772693</v>
       </c>
       <c r="D209">
-        <v>-0.06285029339094328</v>
+        <v>-0.1224841695871595</v>
+      </c>
+      <c r="E209">
+        <v>15</v>
       </c>
       <c r="F209">
         <v>2</v>
@@ -3950,13 +4565,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-0.4653453256653667</v>
+        <v>-0.3239361241241486</v>
       </c>
       <c r="C210">
-        <v>1.811000105508577</v>
+        <v>0.2691357596650957</v>
       </c>
       <c r="D210">
-        <v>-2.659770576253313</v>
+        <v>0.02750596312177292</v>
+      </c>
+      <c r="E210">
+        <v>15</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -3967,13 +4585,16 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.3599781536644928</v>
+        <v>-0.06208213007209995</v>
       </c>
       <c r="C211">
-        <v>2.134884238290825</v>
+        <v>0.4433636405668535</v>
       </c>
       <c r="D211">
-        <v>-2.658922361977327</v>
+        <v>0.02754055502575639</v>
+      </c>
+      <c r="E211">
+        <v>15</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -3984,16 +4605,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.2831918225674825</v>
+        <v>-0.469598477916965</v>
       </c>
       <c r="C212">
-        <v>0.4548852165716138</v>
+        <v>-0.2179950827119305</v>
       </c>
       <c r="D212">
-        <v>-0.7325960468890794</v>
+        <v>0.280350537158764</v>
+      </c>
+      <c r="E212">
+        <v>15</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4001,16 +4625,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.2058733143024578</v>
+        <v>-0.08256910399818845</v>
       </c>
       <c r="C213">
-        <v>-0.02676470752365379</v>
+        <v>-0.4289907919636781</v>
       </c>
       <c r="D213">
-        <v>-0.4066606329331627</v>
+        <v>0.01261838647446364</v>
+      </c>
+      <c r="E213">
+        <v>15</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4018,13 +4645,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>-0.2335079228589474</v>
+        <v>-0.4211175260184875</v>
       </c>
       <c r="C214">
-        <v>-0.1491705553152918</v>
+        <v>-0.3509439664956788</v>
       </c>
       <c r="D214">
-        <v>-0.09647596221480337</v>
+        <v>0.08293747195502046</v>
+      </c>
+      <c r="E214">
+        <v>15</v>
       </c>
       <c r="F214">
         <v>2</v>
@@ -4035,16 +4665,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.4207293420088176</v>
+        <v>0.09571357334172914</v>
       </c>
       <c r="C215">
-        <v>0.5031567651635441</v>
+        <v>-0.1727424941820008</v>
       </c>
       <c r="D215">
-        <v>-1.570369071339181</v>
+        <v>-0.6262630859073068</v>
+      </c>
+      <c r="E215">
+        <v>15</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4052,13 +4685,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.491462701938532</v>
+        <v>0.1646993385174513</v>
       </c>
       <c r="C216">
-        <v>-0.003394521869927281</v>
+        <v>-0.4023046284990353</v>
       </c>
       <c r="D216">
-        <v>-1.418893819346346</v>
+        <v>-0.5726542763859448</v>
+      </c>
+      <c r="E216">
+        <v>15</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4069,16 +4705,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.1292370190314167</v>
+        <v>-0.1189488304169694</v>
       </c>
       <c r="C217">
-        <v>0.2746889383611871</v>
+        <v>-0.2885911923485683</v>
       </c>
       <c r="D217">
-        <v>-1.02775938193487</v>
+        <v>-0.2817919980649253</v>
+      </c>
+      <c r="E217">
+        <v>15</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4086,16 +4725,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-0.6088350755818612</v>
+        <v>-0.3943472381119557</v>
       </c>
       <c r="C218">
-        <v>0.296532781966767</v>
+        <v>-0.350732227007542</v>
       </c>
       <c r="D218">
-        <v>-0.7173838111679763</v>
+        <v>-0.04731059489172831</v>
+      </c>
+      <c r="E218">
+        <v>15</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4103,16 +4745,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>-0.9854264108447084</v>
+        <v>-0.3278042436888337</v>
       </c>
       <c r="C219">
-        <v>0.7373190346946731</v>
+        <v>-0.3261985710643555</v>
       </c>
       <c r="D219">
-        <v>-0.43733396063897</v>
+        <v>-0.07756324850786421</v>
+      </c>
+      <c r="E219">
+        <v>15</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4120,16 +4765,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>3.420782523013451</v>
+        <v>-0.3763771126015422</v>
       </c>
       <c r="C220">
-        <v>1.27231540146649</v>
+        <v>1.872322195516484</v>
       </c>
       <c r="D220">
-        <v>-0.8352045547044237</v>
+        <v>1.433187486026919</v>
+      </c>
+      <c r="E220">
+        <v>16</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4137,16 +4785,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.3948447568342548</v>
+        <v>-0.6020248221421446</v>
       </c>
       <c r="C221">
-        <v>0.1667964503208438</v>
+        <v>-0.3578421713831684</v>
       </c>
       <c r="D221">
-        <v>-0.1592252434000175</v>
+        <v>0.102129664998406</v>
+      </c>
+      <c r="E221">
+        <v>16</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4154,13 +4805,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.3666205256608464</v>
+        <v>-0.6545434545126394</v>
       </c>
       <c r="C222">
-        <v>-0.4593949604974885</v>
+        <v>-0.3606121750768376</v>
       </c>
       <c r="D222">
-        <v>0.7023460641585391</v>
+        <v>0.4769416140617165</v>
+      </c>
+      <c r="E222">
+        <v>16</v>
       </c>
       <c r="F222">
         <v>2</v>
@@ -4171,16 +4825,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>2.959179636829249</v>
+        <v>-0.05485403960418256</v>
       </c>
       <c r="C223">
-        <v>1.230890130019056</v>
+        <v>0.7641904182560353</v>
       </c>
       <c r="D223">
-        <v>-1.912598730063709</v>
+        <v>0.9553910706180034</v>
+      </c>
+      <c r="E223">
+        <v>16</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4188,13 +4845,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-1.016749680488024</v>
+        <v>-0.5674138001480095</v>
       </c>
       <c r="C224">
-        <v>-0.9660869602892072</v>
+        <v>-0.1373702630735232</v>
       </c>
       <c r="D224">
-        <v>0.992513133649775</v>
+        <v>-0.1311418575736868</v>
+      </c>
+      <c r="E224">
+        <v>16</v>
       </c>
       <c r="F224">
         <v>2</v>
@@ -4205,16 +4865,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6.251336943595985</v>
+        <v>0.710390759175997</v>
       </c>
       <c r="C225">
-        <v>0.8104132827688667</v>
+        <v>2.169284721639562</v>
       </c>
       <c r="D225">
-        <v>-3.401610335389333</v>
+        <v>1.130400221241011</v>
+      </c>
+      <c r="E225">
+        <v>16</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4222,13 +4885,16 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.4770973219625747</v>
+        <v>-0.3130937459546789</v>
       </c>
       <c r="C226">
-        <v>-1.326459719110768</v>
+        <v>-0.4797724720523616</v>
       </c>
       <c r="D226">
-        <v>0.9338794005560732</v>
+        <v>-0.06112642079686251</v>
+      </c>
+      <c r="E226">
+        <v>16</v>
       </c>
       <c r="F226">
         <v>2</v>
@@ -4239,16 +4905,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.8683310054531852</v>
+        <v>-0.1299300382367033</v>
       </c>
       <c r="C227">
-        <v>-0.4833024880909412</v>
+        <v>-0.679954256284903</v>
       </c>
       <c r="D227">
-        <v>0.067656854267928</v>
+        <v>0.1351495577811691</v>
+      </c>
+      <c r="E227">
+        <v>16</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4256,16 +4925,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>3.813917427878756</v>
+        <v>-0.06959139960679905</v>
       </c>
       <c r="C228">
-        <v>1.192323678897886</v>
+        <v>1.572138076436403</v>
       </c>
       <c r="D228">
-        <v>-2.052901892507764</v>
+        <v>0.9256379373587086</v>
+      </c>
+      <c r="E228">
+        <v>16</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4273,16 +4945,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>3.159055158782576</v>
+        <v>-0.006858814239932287</v>
       </c>
       <c r="C229">
-        <v>1.466411491581782</v>
+        <v>1.467861986187095</v>
       </c>
       <c r="D229">
-        <v>-1.59848702825767</v>
+        <v>0.9320666511230468</v>
+      </c>
+      <c r="E229">
+        <v>16</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4290,16 +4965,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>1.961330963202151</v>
+        <v>-1.865820521157042</v>
       </c>
       <c r="C230">
-        <v>1.268180242670749</v>
+        <v>1.3237455919683</v>
       </c>
       <c r="D230">
-        <v>0.324482953120046</v>
+        <v>2.017441332889438</v>
+      </c>
+      <c r="E230">
+        <v>16</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4307,16 +4985,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>2.940779093460371</v>
+        <v>-0.3613994580407853</v>
       </c>
       <c r="C231">
-        <v>2.129462900358435</v>
+        <v>1.704834720614259</v>
       </c>
       <c r="D231">
-        <v>-1.737270826781153</v>
+        <v>1.118460004557901</v>
+      </c>
+      <c r="E231">
+        <v>16</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4324,16 +5005,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>2.951316672103002</v>
+        <v>-0.5129502887716593</v>
       </c>
       <c r="C232">
-        <v>1.408276267488069</v>
+        <v>1.554719057582815</v>
       </c>
       <c r="D232">
-        <v>-1.307621151152237</v>
+        <v>1.12472095490342</v>
+      </c>
+      <c r="E232">
+        <v>16</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -4341,16 +5025,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>1.625591542219297</v>
+        <v>-0.7512697240196852</v>
       </c>
       <c r="C233">
-        <v>1.290923636051494</v>
+        <v>1.243862645102554</v>
       </c>
       <c r="D233">
-        <v>-0.008084994599328321</v>
+        <v>0.9920822920174627</v>
+      </c>
+      <c r="E233">
+        <v>16</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -4358,16 +5045,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-1.004208541527419</v>
+        <v>-0.5513540869650242</v>
       </c>
       <c r="C234">
-        <v>-0.9717587497900938</v>
+        <v>-0.1397129123325715</v>
       </c>
       <c r="D234">
-        <v>0.9662448231570492</v>
+        <v>-0.1419158099278858</v>
+      </c>
+      <c r="E234">
+        <v>16</v>
       </c>
       <c r="F234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -4375,16 +5065,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>1.296067057578331</v>
+        <v>-0.421395053634659</v>
       </c>
       <c r="C235">
-        <v>0.3633245845843166</v>
+        <v>0.2904988954826045</v>
       </c>
       <c r="D235">
-        <v>-0.5448197750026317</v>
+        <v>0.5005876077177506</v>
+      </c>
+      <c r="E235">
+        <v>16</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -4392,16 +5085,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>5.280396411746861</v>
+        <v>0.1037937991617711</v>
       </c>
       <c r="C236">
-        <v>0.5035461295977036</v>
+        <v>1.816902731746296</v>
       </c>
       <c r="D236">
-        <v>-3.576714927433198</v>
+        <v>0.9437757897714357</v>
+      </c>
+      <c r="E236">
+        <v>16</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -4409,16 +5105,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>5.332814498514075</v>
+        <v>0.9185311546709611</v>
       </c>
       <c r="C237">
-        <v>1.30320523704607</v>
+        <v>2.013188309508522</v>
       </c>
       <c r="D237">
-        <v>-4.023833132777479</v>
+        <v>0.3949639350545541</v>
+      </c>
+      <c r="E237">
+        <v>16</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -4426,16 +5125,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>2.81418438189533</v>
+        <v>-1.409014296096127</v>
       </c>
       <c r="C238">
-        <v>1.664302372773351</v>
+        <v>1.873975696351335</v>
       </c>
       <c r="D238">
-        <v>1.284895467228655</v>
+        <v>2.610833598024235</v>
+      </c>
+      <c r="E238">
+        <v>17</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -4443,13 +5145,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>-21.24804519372019</v>
+        <v>-12.01442248712401</v>
       </c>
       <c r="C239">
-        <v>13.47537645005321</v>
+        <v>0.2646927580206222</v>
       </c>
       <c r="D239">
-        <v>30.53946596498895</v>
+        <v>9.177360213434273</v>
+      </c>
+      <c r="E239">
+        <v>17</v>
       </c>
       <c r="F239">
         <v>2</v>
@@ -4460,13 +5165,16 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.7546488812987684</v>
+        <v>0.009943039928073327</v>
       </c>
       <c r="C240">
-        <v>-0.4341071713542772</v>
+        <v>-0.7333079773492988</v>
       </c>
       <c r="D240">
-        <v>-0.6024035086020173</v>
+        <v>-0.2200747749713864</v>
+      </c>
+      <c r="E240">
+        <v>17</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -4477,13 +5185,16 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.04966245458039198</v>
+        <v>-0.7070998888330152</v>
       </c>
       <c r="C241">
-        <v>-0.4887551044164478</v>
+        <v>-0.6729353349949838</v>
       </c>
       <c r="D241">
-        <v>0.6177166466873183</v>
+        <v>0.622442169690103</v>
+      </c>
+      <c r="E241">
+        <v>17</v>
       </c>
       <c r="F241">
         <v>2</v>
@@ -4494,16 +5205,19 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.1000615442289096</v>
+        <v>-0.6927346806424008</v>
       </c>
       <c r="C242">
-        <v>0.2433084059816099</v>
+        <v>-0.3866658917356232</v>
       </c>
       <c r="D242">
-        <v>0.06421234977023693</v>
+        <v>0.1381103093949062</v>
+      </c>
+      <c r="E242">
+        <v>17</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -4511,13 +5225,16 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>-1.018795963806399</v>
+        <v>-0.5632771189354921</v>
       </c>
       <c r="C243">
-        <v>-0.9639008358668411</v>
+        <v>-0.1385128819719891</v>
       </c>
       <c r="D243">
-        <v>0.9897210186209282</v>
+        <v>-0.1338424451092868</v>
+      </c>
+      <c r="E243">
+        <v>17</v>
       </c>
       <c r="F243">
         <v>2</v>
@@ -4528,16 +5245,19 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.7363438318877409</v>
+        <v>-0.4465090305274116</v>
       </c>
       <c r="C244">
-        <v>-0.6158467815036981</v>
+        <v>-0.6720243250497224</v>
       </c>
       <c r="D244">
-        <v>-0.06380954172430175</v>
+        <v>0.2022954988935144</v>
+      </c>
+      <c r="E244">
+        <v>17</v>
       </c>
       <c r="F244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -4545,13 +5265,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.1601655915978976</v>
+        <v>-0.6954463239450581</v>
       </c>
       <c r="C245">
-        <v>-0.7208567780506511</v>
+        <v>-0.8538464601483937</v>
       </c>
       <c r="D245">
-        <v>0.7517748701174287</v>
+        <v>0.7819594733777586</v>
+      </c>
+      <c r="E245">
+        <v>17</v>
       </c>
       <c r="F245">
         <v>2</v>
@@ -4562,13 +5285,16 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>-1.290570089305858</v>
+        <v>-1.942083770686798</v>
       </c>
       <c r="C246">
-        <v>0.1652533757063762</v>
+        <v>-0.4875453106314347</v>
       </c>
       <c r="D246">
-        <v>3.090023973479156</v>
+        <v>1.444969428744603</v>
+      </c>
+      <c r="E246">
+        <v>17</v>
       </c>
       <c r="F246">
         <v>2</v>
@@ -4579,16 +5305,19 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.567645728172766</v>
+        <v>-0.8178472815449118</v>
       </c>
       <c r="C247">
-        <v>3.630332452276268</v>
+        <v>1.489186335660551</v>
       </c>
       <c r="D247">
-        <v>1.443034098939767</v>
+        <v>1.806576521532896</v>
+      </c>
+      <c r="E247">
+        <v>17</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -4596,16 +5325,19 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.4178394127987817</v>
+        <v>-0.5469528727459956</v>
       </c>
       <c r="C248">
-        <v>-0.533425277514278</v>
+        <v>-0.5378279875074481</v>
       </c>
       <c r="D248">
-        <v>-0.09029544013409463</v>
+        <v>0.2615856748070702</v>
+      </c>
+      <c r="E248">
+        <v>17</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -4613,16 +5345,19 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.2191858145654775</v>
+        <v>-0.3258768079290514</v>
       </c>
       <c r="C249">
-        <v>-0.635910132524224</v>
+        <v>-0.420330857910873</v>
       </c>
       <c r="D249">
-        <v>0.1219303051047794</v>
+        <v>0.006908177647044128</v>
+      </c>
+      <c r="E249">
+        <v>17</v>
       </c>
       <c r="F249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -4630,13 +5365,16 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.1122130166749318</v>
+        <v>-0.6200526967793756</v>
       </c>
       <c r="C250">
-        <v>-0.520303061287529</v>
+        <v>-0.5219703118517329</v>
       </c>
       <c r="D250">
-        <v>0.1870464834422116</v>
+        <v>0.4291252630683235</v>
+      </c>
+      <c r="E250">
+        <v>17</v>
       </c>
       <c r="F250">
         <v>2</v>
@@ -4647,16 +5385,19 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.184860702392907</v>
+        <v>-0.6236661818924997</v>
       </c>
       <c r="C251">
-        <v>-0.07027579062285538</v>
+        <v>-0.4459724380652639</v>
       </c>
       <c r="D251">
-        <v>-0.08896504255304583</v>
+        <v>0.3551271417361048</v>
+      </c>
+      <c r="E251">
+        <v>17</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -4664,16 +5405,19 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.3448332694255736</v>
+        <v>-0.515505497356458</v>
       </c>
       <c r="C252">
-        <v>-0.1017972430772003</v>
+        <v>-0.3765854118585185</v>
       </c>
       <c r="D252">
-        <v>-0.01812238434544555</v>
+        <v>0.2375371925291338</v>
+      </c>
+      <c r="E252">
+        <v>17</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -4681,16 +5425,19 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.246228899938056</v>
+        <v>-0.2095297781969671</v>
       </c>
       <c r="C253">
-        <v>0.2465667966311668</v>
+        <v>-0.3699656076551495</v>
       </c>
       <c r="D253">
-        <v>-0.6461982488477601</v>
+        <v>-0.2214265521640427</v>
+      </c>
+      <c r="E253">
+        <v>17</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -4698,13 +5445,16 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-0.9604375476717338</v>
+        <v>-1.461690918303949</v>
       </c>
       <c r="C254">
-        <v>0.2843902586267929</v>
+        <v>-0.2351957730401504</v>
       </c>
       <c r="D254">
-        <v>1.745552567784022</v>
+        <v>0.7962684726994137</v>
+      </c>
+      <c r="E254">
+        <v>17</v>
       </c>
       <c r="F254">
         <v>2</v>
@@ -4715,16 +5465,19 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.7091784934420926</v>
+        <v>-0.2726151606549885</v>
       </c>
       <c r="C255">
-        <v>0.6871784100960016</v>
+        <v>-0.3331542699355716</v>
       </c>
       <c r="D255">
-        <v>-0.7253004914058406</v>
+        <v>-0.1512034615340627</v>
+      </c>
+      <c r="E255">
+        <v>17</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -4732,16 +5485,19 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.2885340608924909</v>
+        <v>-0.5481988936345942</v>
       </c>
       <c r="C256">
-        <v>-0.2284802169141934</v>
+        <v>-0.379718202790891</v>
       </c>
       <c r="D256">
-        <v>-0.3618212838928597</v>
+        <v>0.1695517650716135</v>
+      </c>
+      <c r="E256">
+        <v>17</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -4749,16 +5505,19 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.1783103960971537</v>
+        <v>-0.7033862866342278</v>
       </c>
       <c r="C257">
-        <v>0.7772195136845478</v>
+        <v>-0.116804580542766</v>
       </c>
       <c r="D257">
-        <v>-0.4615879712802627</v>
+        <v>0.1672768624840072</v>
+      </c>
+      <c r="E257">
+        <v>17</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -4766,16 +5525,19 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.617084853023051</v>
+        <v>-0.2763814593178549</v>
       </c>
       <c r="C258">
-        <v>0.3550274585429535</v>
+        <v>-0.4283125483963214</v>
       </c>
       <c r="D258">
-        <v>-0.4591442420622601</v>
+        <v>0.1804833528635975</v>
+      </c>
+      <c r="E258">
+        <v>17</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -4783,16 +5545,19 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.434778346901729</v>
+        <v>-0.1951423303730094</v>
       </c>
       <c r="C259">
-        <v>-0.05172658271667363</v>
+        <v>-0.2378247584878762</v>
       </c>
       <c r="D259">
-        <v>-1.121008812948036</v>
+        <v>-0.1922389147541262</v>
+      </c>
+      <c r="E259">
+        <v>17</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -4800,13 +5565,16 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.6375387123976668</v>
+        <v>0.02283265730612771</v>
       </c>
       <c r="C260">
-        <v>-0.1780175502020709</v>
+        <v>-0.5504167399123396</v>
       </c>
       <c r="D260">
-        <v>-0.4720064745055269</v>
+        <v>-0.07523080199914071</v>
+      </c>
+      <c r="E260">
+        <v>17</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -4817,13 +5585,16 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>1.5731235380924</v>
+        <v>0.6378152681781526</v>
       </c>
       <c r="C261">
-        <v>-0.2497594228227904</v>
+        <v>-0.7151878505260501</v>
       </c>
       <c r="D261">
-        <v>-2.066902811570174</v>
+        <v>-0.6380239084872337</v>
+      </c>
+      <c r="E261">
+        <v>17</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -4834,13 +5605,16 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>-0.9181054440997335</v>
+        <v>-0.6058701737151113</v>
       </c>
       <c r="C262">
-        <v>-1.114805199451308</v>
+        <v>-0.2104364817575595</v>
       </c>
       <c r="D262">
-        <v>1.095745692773884</v>
+        <v>-0.03238649487766922</v>
+      </c>
+      <c r="E262">
+        <v>17</v>
       </c>
       <c r="F262">
         <v>2</v>
@@ -4851,16 +5625,19 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.4270596393551611</v>
+        <v>-1.018040249639351</v>
       </c>
       <c r="C263">
-        <v>1.783486146850692</v>
+        <v>0.5496892341122972</v>
       </c>
       <c r="D263">
-        <v>0.9920735026170407</v>
+        <v>1.251607519064371</v>
+      </c>
+      <c r="E263">
+        <v>17</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -4868,13 +5645,16 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.03513000416970513</v>
+        <v>-0.4100663389629897</v>
       </c>
       <c r="C264">
-        <v>1.871725215516143</v>
+        <v>0.7728944755553848</v>
       </c>
       <c r="D264">
-        <v>-2.254614396881811</v>
+        <v>-0.829605317986308</v>
+      </c>
+      <c r="E264">
+        <v>18</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -4885,13 +5665,16 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>-0.6808654065978522</v>
+        <v>-0.5353535951591633</v>
       </c>
       <c r="C265">
-        <v>2.487946497917153</v>
+        <v>1.029666929171443</v>
       </c>
       <c r="D265">
-        <v>-2.700151184539295</v>
+        <v>-0.8131021700809051</v>
+      </c>
+      <c r="E265">
+        <v>18</v>
       </c>
       <c r="F265">
         <v>1</v>
@@ -4902,13 +5685,16 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.6903863636412164</v>
+        <v>-0.3979114048583088</v>
       </c>
       <c r="C266">
-        <v>1.00145475059283</v>
+        <v>0.6171839256994898</v>
       </c>
       <c r="D266">
-        <v>-1.077054423193627</v>
+        <v>-0.9810193917249362</v>
+      </c>
+      <c r="E266">
+        <v>18</v>
       </c>
       <c r="F266">
         <v>1</v>
@@ -4919,13 +5705,16 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.2245993707549916</v>
+        <v>-0.2724044991611592</v>
       </c>
       <c r="C267">
-        <v>1.177431180381557</v>
+        <v>0.4936524873568944</v>
       </c>
       <c r="D267">
-        <v>-2.309952806402757</v>
+        <v>-0.9548185482654046</v>
+      </c>
+      <c r="E267">
+        <v>18</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -4936,13 +5725,16 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.1344293147267636</v>
+        <v>-0.2441833027129728</v>
       </c>
       <c r="C268">
-        <v>0.9282529231304887</v>
+        <v>0.1388597800781174</v>
       </c>
       <c r="D268">
-        <v>-1.784508863490593</v>
+        <v>-0.4907665397757686</v>
+      </c>
+      <c r="E268">
+        <v>18</v>
       </c>
       <c r="F268">
         <v>1</v>
@@ -4953,13 +5745,16 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.09942433507643855</v>
+        <v>-0.03413945990614942</v>
       </c>
       <c r="C269">
-        <v>-0.3288480055258647</v>
+        <v>-0.2305266086607406</v>
       </c>
       <c r="D269">
-        <v>-1.171405722701389</v>
+        <v>-0.7061824484394547</v>
+      </c>
+      <c r="E269">
+        <v>18</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -4970,13 +5765,16 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>-0.371991353597404</v>
+        <v>-0.5163792060121948</v>
       </c>
       <c r="C270">
-        <v>1.487062198184424</v>
+        <v>0.7485317867601762</v>
       </c>
       <c r="D270">
-        <v>-1.738646215768102</v>
+        <v>-0.6731535087566386</v>
+      </c>
+      <c r="E270">
+        <v>18</v>
       </c>
       <c r="F270">
         <v>1</v>
@@ -4987,13 +5785,16 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.04288048412308898</v>
+        <v>-0.1408329513334869</v>
       </c>
       <c r="C271">
-        <v>0.885976098362954</v>
+        <v>0.4448251891896737</v>
       </c>
       <c r="D271">
-        <v>-1.722338474177565</v>
+        <v>-0.978384867748463</v>
+      </c>
+      <c r="E271">
+        <v>18</v>
       </c>
       <c r="F271">
         <v>1</v>
@@ -5004,13 +5805,16 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.1830156408791246</v>
+        <v>-0.290155519187399</v>
       </c>
       <c r="C272">
-        <v>1.852454235798825</v>
+        <v>0.6992440079120474</v>
       </c>
       <c r="D272">
-        <v>-2.305614788130704</v>
+        <v>-0.8083145832084178</v>
+      </c>
+      <c r="E272">
+        <v>18</v>
       </c>
       <c r="F272">
         <v>1</v>
@@ -5021,16 +5825,19 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.009206977569860886</v>
+        <v>0.2210884202553954</v>
       </c>
       <c r="C273">
-        <v>0.2074534004987033</v>
+        <v>-0.01325390753254824</v>
       </c>
       <c r="D273">
-        <v>-1.237454148289857</v>
+        <v>-1.18852889382648</v>
+      </c>
+      <c r="E273">
+        <v>18</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -5038,16 +5845,16 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>-0.4902564710960149</v>
+        <v>-0.6293729598112013</v>
       </c>
       <c r="C274">
-        <v>0.9173219383780785</v>
+        <v>0.5255812629919705</v>
       </c>
       <c r="D274">
-        <v>-0.823679091236191</v>
+        <v>-0.4717373550460872</v>
       </c>
       <c r="E274">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F274">
         <v>1</v>
@@ -5058,16 +5865,16 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>-0.6721488533245475</v>
+        <v>-0.4484449306621097</v>
       </c>
       <c r="C275">
-        <v>1.697783956604922</v>
+        <v>0.6613670401090879</v>
       </c>
       <c r="D275">
-        <v>-2.321126386347894</v>
+        <v>-0.7054541328066749</v>
       </c>
       <c r="E275">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F275">
         <v>1</v>
@@ -5078,16 +5885,16 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>-0.366650953249787</v>
+        <v>-0.4945242644439783</v>
       </c>
       <c r="C276">
-        <v>1.512380064378784</v>
+        <v>0.569261443671881</v>
       </c>
       <c r="D276">
-        <v>-1.534453460558046</v>
+        <v>-0.5242488168953937</v>
       </c>
       <c r="E276">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F276">
         <v>1</v>
@@ -5098,16 +5905,16 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>-0.2159094086112125</v>
+        <v>-0.2054252123772387</v>
       </c>
       <c r="C277">
-        <v>0.7755631424175792</v>
+        <v>0.1650424189714483</v>
       </c>
       <c r="D277">
-        <v>-1.646187709710761</v>
+        <v>-0.6318546864725373</v>
       </c>
       <c r="E277">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F277">
         <v>1</v>
@@ -5118,16 +5925,16 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>-0.4027393513942443</v>
+        <v>-0.4559844125939664</v>
       </c>
       <c r="C278">
-        <v>1.281769311147557</v>
+        <v>0.2908381431785961</v>
       </c>
       <c r="D278">
-        <v>-1.622659890136812</v>
+        <v>-0.4301258467303689</v>
       </c>
       <c r="E278">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F278">
         <v>1</v>
@@ -5138,16 +5945,16 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>-0.4398262843612712</v>
+        <v>-0.5271770799101676</v>
       </c>
       <c r="C279">
-        <v>1.014045766099216</v>
+        <v>0.4112525391474922</v>
       </c>
       <c r="D279">
-        <v>-1.296047302667823</v>
+        <v>-0.3407614250807752</v>
       </c>
       <c r="E279">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F279">
         <v>1</v>
@@ -5158,16 +5965,16 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>-0.4426826686203211</v>
+        <v>-0.5686038413190363</v>
       </c>
       <c r="C280">
-        <v>0.2558157576679373</v>
+        <v>0.09264957689753808</v>
       </c>
       <c r="D280">
-        <v>-0.4006822096989916</v>
+        <v>-0.2495713451912394</v>
       </c>
       <c r="E280">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F280">
         <v>1</v>
@@ -5178,16 +5985,16 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>-0.6968751277585419</v>
+        <v>-0.6768517564788267</v>
       </c>
       <c r="C281">
-        <v>0.8158632914811074</v>
+        <v>0.2963936498186313</v>
       </c>
       <c r="D281">
-        <v>-1.107019408960554</v>
+        <v>-0.1161546203868416</v>
       </c>
       <c r="E281">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F281">
         <v>1</v>
@@ -5198,16 +6005,16 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.003974268784775026</v>
+        <v>-0.3251953986614357</v>
       </c>
       <c r="C282">
-        <v>0.7856796255145601</v>
+        <v>0.1975128373231351</v>
       </c>
       <c r="D282">
-        <v>-1.223439684090263</v>
+        <v>-0.3546202471240331</v>
       </c>
       <c r="E282">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F282">
         <v>1</v>
@@ -5218,16 +6025,16 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>-0.3781993961431871</v>
+        <v>-0.4969329250287167</v>
       </c>
       <c r="C283">
-        <v>1.620148718456607</v>
+        <v>0.5781193762203221</v>
       </c>
       <c r="D283">
-        <v>-1.814547657737288</v>
+        <v>-0.4999449843084149</v>
       </c>
       <c r="E283">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F283">
         <v>1</v>
@@ -5238,16 +6045,16 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>-0.6222697902870532</v>
+        <v>-0.5337500911660981</v>
       </c>
       <c r="C284">
-        <v>1.046655644695812</v>
+        <v>0.2796546642926535</v>
       </c>
       <c r="D284">
-        <v>-1.0472144580098</v>
+        <v>-0.1946185310322013</v>
       </c>
       <c r="E284">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F284">
         <v>1</v>
@@ -5258,16 +6065,16 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>-0.3839075857500012</v>
+        <v>-0.2568707273756793</v>
       </c>
       <c r="C285">
-        <v>0.3864489850178002</v>
+        <v>-0.1625768660199566</v>
       </c>
       <c r="D285">
-        <v>-0.9346981914559446</v>
+        <v>-0.1694332800720488</v>
       </c>
       <c r="E285">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F285">
         <v>1</v>
@@ -5278,16 +6085,16 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>-0.6066175483084891</v>
+        <v>-0.630996982942033</v>
       </c>
       <c r="C286">
-        <v>1.152282946150351</v>
+        <v>0.6103678344280425</v>
       </c>
       <c r="D286">
-        <v>-1.454816884619129</v>
+        <v>-0.6731223929760861</v>
       </c>
       <c r="E286">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F286">
         <v>1</v>
@@ -5298,16 +6105,16 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-0.476573991550012</v>
+        <v>-0.6063707582885214</v>
       </c>
       <c r="C287">
-        <v>1.563699989197234</v>
+        <v>0.670534253831875</v>
       </c>
       <c r="D287">
-        <v>-1.636723183998965</v>
+        <v>-0.4706737449776126</v>
       </c>
       <c r="E287">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F287">
         <v>1</v>
@@ -5318,16 +6125,16 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>-0.799869934838409</v>
+        <v>-0.9628418675144975</v>
       </c>
       <c r="C288">
-        <v>1.325394813065252</v>
+        <v>0.7515945128005364</v>
       </c>
       <c r="D288">
-        <v>-0.4213060501857439</v>
+        <v>-0.2279563419879712</v>
       </c>
       <c r="E288">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F288">
         <v>1</v>
@@ -5338,16 +6145,16 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>-1.679336501823118</v>
+        <v>-0.9902041293401336</v>
       </c>
       <c r="C289">
-        <v>1.106807316240555</v>
+        <v>0.8604649654955938</v>
       </c>
       <c r="D289">
-        <v>-0.5389407011622273</v>
+        <v>-0.767317849864895</v>
       </c>
       <c r="E289">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F289">
         <v>1</v>
@@ -5358,16 +6165,16 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>-0.5419649067019079</v>
+        <v>-0.515275842080491</v>
       </c>
       <c r="C290">
-        <v>0.9524780879653431</v>
+        <v>0.5192084529177965</v>
       </c>
       <c r="D290">
-        <v>-1.619808966530769</v>
+        <v>-0.6061994004504451</v>
       </c>
       <c r="E290">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F290">
         <v>1</v>
@@ -5378,16 +6185,16 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>-0.6080947819313764</v>
+        <v>-0.5816115102444491</v>
       </c>
       <c r="C291">
-        <v>0.8727318745192877</v>
+        <v>0.4647926194323388</v>
       </c>
       <c r="D291">
-        <v>-1.515158099945268</v>
+        <v>-0.4811039153773609</v>
       </c>
       <c r="E291">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F291">
         <v>1</v>
@@ -5398,16 +6205,16 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-0.5623809633840317</v>
+        <v>-0.7487901369720835</v>
       </c>
       <c r="C292">
-        <v>0.407699144604677</v>
+        <v>0.4099821546183851</v>
       </c>
       <c r="D292">
-        <v>-0.9213556177235028</v>
+        <v>-0.4382096165909593</v>
       </c>
       <c r="E292">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F292">
         <v>1</v>
